--- a/Documents/数值表.xlsx
+++ b/Documents/数值表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -15,12 +15,12 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
   <si>
     <t>升级需要战斗的次数</t>
   </si>
@@ -363,67 +363,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础平衡型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础防御型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础血牛型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础远程型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础速度型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础技巧型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础群攻型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP↑ ATK↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF↑   SPD↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD↑   DEF↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK↑   MaxHP↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD↑   ATK↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK↑   SKILL↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL↑ DEF↓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,6 +378,122 @@
     <t>技能权重修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>基础平衡型Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击型Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御型Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血牛型Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平衡型Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击型Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御型Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血牛型Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平衡型Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击型Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御型Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血牛型Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +505,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,8 +521,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,9 +1031,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,9 +1041,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
@@ -1063,63 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1161,144 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,24 +1641,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48451968"/>
-        <c:axId val="48453504"/>
+        <c:axId val="61044992"/>
+        <c:axId val="37949440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48451968"/>
+        <c:axId val="61044992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48453504"/>
+        <c:crossAx val="37949440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48453504"/>
+        <c:axId val="37949440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48451968"/>
+        <c:crossAx val="61044992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,7 +1678,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2496,24 +2656,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48487808"/>
-        <c:axId val="49558656"/>
+        <c:axId val="37983744"/>
+        <c:axId val="37985280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48487808"/>
+        <c:axId val="37983744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49558656"/>
+        <c:crossAx val="37985280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49558656"/>
+        <c:axId val="37985280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2681,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48487808"/>
+        <c:crossAx val="37983744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2533,7 +2693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3130,24 +3290,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49584000"/>
-        <c:axId val="49585536"/>
+        <c:axId val="38223872"/>
+        <c:axId val="38225408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49584000"/>
+        <c:axId val="38223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49585536"/>
+        <c:crossAx val="38225408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49585536"/>
+        <c:axId val="38225408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3315,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49584000"/>
+        <c:crossAx val="38223872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3167,7 +3327,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3492,24 +3652,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49798144"/>
-        <c:axId val="49799936"/>
+        <c:axId val="38438016"/>
+        <c:axId val="38439552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49798144"/>
+        <c:axId val="38438016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49799936"/>
+        <c:crossAx val="38439552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49799936"/>
+        <c:axId val="38439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3677,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49798144"/>
+        <c:crossAx val="38438016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3529,7 +3689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3559,94 +3719,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>454</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>578</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>640</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>764</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>826</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>888</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>950</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1012</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1074</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1136</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1198</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1260</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1322</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1384</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1446</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1508</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1570</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1632</c:v>
+                  <c:v>1474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1694</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1756</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1818</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1880</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1942</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2004</c:v>
+                  <c:v>1798</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2066</c:v>
+                  <c:v>1852</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2128</c:v>
+                  <c:v>1906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,94 +3828,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>391</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>452</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>513</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>574</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>635</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>696</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>757</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>818</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>879</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>940</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1001</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1062</c:v>
+                  <c:v>1206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1123</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1184</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1245</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1306</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1367</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1428</c:v>
+                  <c:v>1614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1489</c:v>
+                  <c:v>1682</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1550</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1611</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1672</c:v>
+                  <c:v>1886</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1733</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1794</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1855</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1916</c:v>
+                  <c:v>2158</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1977</c:v>
+                  <c:v>2226</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2038</c:v>
+                  <c:v>2294</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2099</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,118 +3937,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>391</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>452</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>513</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>574</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>635</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>696</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>757</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>818</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>879</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>940</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1001</c:v>
+                  <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1062</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1123</c:v>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1184</c:v>
+                  <c:v>1446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1245</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1306</c:v>
+                  <c:v>1594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1367</c:v>
+                  <c:v>1668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1428</c:v>
+                  <c:v>1742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1489</c:v>
+                  <c:v>1816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1550</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1611</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1672</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1733</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1794</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1855</c:v>
+                  <c:v>2260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1916</c:v>
+                  <c:v>2334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1977</c:v>
+                  <c:v>2408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2038</c:v>
+                  <c:v>2482</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2099</c:v>
+                  <c:v>2556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49997696"/>
-        <c:axId val="49999232"/>
+        <c:axId val="38494208"/>
+        <c:axId val="38495744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49997696"/>
+        <c:axId val="38494208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49999232"/>
+        <c:crossAx val="38495744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49999232"/>
+        <c:axId val="38495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +4056,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49997696"/>
+        <c:crossAx val="38494208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3908,7 +4068,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6329,10 +6489,10 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="13"/>
       <c r="F1" s="14">
         <v>1.5</v>
@@ -6341,39 +6501,39 @@
         <v>1.25</v>
       </c>
       <c r="H1" s="16"/>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="120" t="s">
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="115" t="s">
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="116"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="107" t="s">
+      <c r="V1" s="122"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="110" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="129"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
       <c r="AF1" s="17"/>
@@ -6404,11 +6564,11 @@
       <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="19"/>
@@ -6418,21 +6578,21 @@
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="115" t="s">
+      <c r="U2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="107" t="s">
+      <c r="V2" s="122"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="110" t="s">
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="112"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="17"/>
@@ -19487,17 +19647,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19525,10 +19685,10 @@
       <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="125"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="13"/>
       <c r="F1" s="14">
         <v>1.5</v>
@@ -19537,39 +19697,39 @@
         <v>1.25</v>
       </c>
       <c r="H1" s="16"/>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="120" t="s">
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="115" t="s">
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="116"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="107" t="s">
+      <c r="V1" s="122"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="110" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="129"/>
       <c r="AD1" s="63"/>
       <c r="AE1" s="63"/>
       <c r="AF1" s="59" t="s">
@@ -19602,11 +19762,11 @@
       <c r="H2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="19"/>
@@ -19616,21 +19776,21 @@
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="115" t="s">
+      <c r="U2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="107" t="s">
+      <c r="V2" s="122"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="110" t="s">
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="112"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="63"/>
       <c r="AE2" s="63"/>
       <c r="AF2" s="59"/>
@@ -32841,17 +33001,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32862,862 +33022,2057 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="78" customWidth="1"/>
-    <col min="3" max="3" width="21" style="80" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="83"/>
-    <col min="7" max="9" width="9" style="126"/>
-    <col min="10" max="10" width="9" style="86"/>
-    <col min="11" max="11" width="8.875" style="70" customWidth="1"/>
-    <col min="12" max="12" width="9" style="87"/>
-    <col min="13" max="13" width="9" style="90"/>
-    <col min="14" max="14" width="8.5" style="71" customWidth="1"/>
-    <col min="15" max="15" width="9" style="91"/>
-    <col min="16" max="16" width="9" style="98"/>
-    <col min="17" max="17" width="8.5" style="99" customWidth="1"/>
-    <col min="18" max="18" width="9" style="100"/>
-    <col min="19" max="19" width="12.625" style="128" customWidth="1"/>
-    <col min="20" max="21" width="9" style="128"/>
-    <col min="22" max="22" width="9" style="132"/>
-    <col min="23" max="23" width="10.125" style="129" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="131" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="76" customWidth="1"/>
+    <col min="3" max="3" width="21" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="80" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="81"/>
+    <col min="7" max="9" width="9" style="105"/>
+    <col min="10" max="10" width="9" style="84"/>
+    <col min="11" max="11" width="8.875" style="69" customWidth="1"/>
+    <col min="12" max="12" width="9" style="85"/>
+    <col min="13" max="13" width="9" style="88"/>
+    <col min="14" max="14" width="8.5" style="70" customWidth="1"/>
+    <col min="15" max="15" width="9" style="89"/>
+    <col min="16" max="16" width="9" style="96"/>
+    <col min="17" max="17" width="8.5" style="97" customWidth="1"/>
+    <col min="18" max="18" width="9" style="98"/>
+    <col min="19" max="19" width="12.625" style="107" customWidth="1"/>
+    <col min="20" max="21" width="9" style="107"/>
+    <col min="22" max="22" width="9" style="111"/>
+    <col min="23" max="23" width="10.125" style="108" customWidth="1"/>
     <col min="25" max="25" width="9" style="12"/>
     <col min="27" max="27" width="9" style="12"/>
     <col min="29" max="29" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="72" customFormat="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:31" s="71" customFormat="1">
+      <c r="A1" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="129" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="106"/>
+      <c r="AA1" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="102" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="77" customFormat="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="85">
+    <row r="2" spans="1:31" s="75" customFormat="1">
+      <c r="A2" s="132"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="83">
         <v>1</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106">
         <v>4</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="89">
+      <c r="J2" s="86"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="87">
         <v>7</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="93">
+      <c r="M2" s="90"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="91">
         <v>10</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103">
-        <v>20</v>
-      </c>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="131"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101">
+        <v>6</v>
+      </c>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
       <c r="Y2" s="32"/>
       <c r="AA2" s="32"/>
       <c r="AC2" s="32"/>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="68">
+    <row r="3" spans="1:31">
+      <c r="A3" s="131">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="80">
+        <v>100</v>
+      </c>
+      <c r="E3" s="68">
+        <v>20</v>
+      </c>
+      <c r="F3" s="81">
+        <f>F$2*E3</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="105">
+        <v>50</v>
+      </c>
+      <c r="H3" s="105">
+        <v>1</v>
+      </c>
+      <c r="I3" s="105">
+        <f>I$2*H3</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="84">
+        <v>20</v>
+      </c>
+      <c r="K3" s="69">
+        <v>2</v>
+      </c>
+      <c r="L3" s="85">
+        <f>L$2*K3</f>
+        <v>14</v>
+      </c>
+      <c r="M3" s="88">
+        <v>10</v>
+      </c>
+      <c r="N3" s="70">
+        <v>2</v>
+      </c>
+      <c r="O3" s="89">
+        <f>O$2*N3</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="96">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="97">
+        <v>6</v>
+      </c>
+      <c r="R3" s="98">
+        <f>R$2*Q3</f>
+        <v>36</v>
+      </c>
+      <c r="S3" s="107">
+        <v>10</v>
+      </c>
+      <c r="T3" s="107">
+        <v>15</v>
+      </c>
+      <c r="U3" s="107">
+        <f>V3*(T3-1)+S3+W3</f>
+        <v>2106</v>
+      </c>
+      <c r="V3" s="111">
+        <f>F3+I3+L3+O3+R3</f>
+        <v>94</v>
+      </c>
+      <c r="W3" s="108">
+        <f>F$2*D3+I$2*G3+L$2*J3+O$2*M3+R$2*P3</f>
+        <v>780</v>
+      </c>
+      <c r="X3">
+        <f>J3</f>
+        <v>20</v>
+      </c>
+      <c r="Y3" s="12">
+        <f>J3+K3*(T3-1)</f>
+        <v>48</v>
+      </c>
+      <c r="Z3">
+        <f>M3</f>
+        <v>10</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>M3+N3*(T3-1)</f>
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <f>P3</f>
+        <v>40</v>
+      </c>
+      <c r="AC3" s="12">
+        <f>P33+Q3*(T3-1)</f>
+        <v>84</v>
+      </c>
+      <c r="AD3">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <f>D3+E3*(T3-1)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="131">
+        <v>2</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="80">
+        <v>80</v>
+      </c>
+      <c r="E4" s="68">
+        <v>20</v>
+      </c>
+      <c r="F4" s="81">
+        <f t="shared" ref="F4:F24" si="0">F$2*E4</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="105">
+        <v>50</v>
+      </c>
+      <c r="H4" s="105">
+        <v>1</v>
+      </c>
+      <c r="I4" s="105">
+        <f t="shared" ref="I4:I24" si="1">I$2*H4</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="84">
+        <v>30</v>
+      </c>
+      <c r="K4" s="69">
+        <v>4</v>
+      </c>
+      <c r="L4" s="85">
+        <f t="shared" ref="L4:L23" si="2">L$2*K4</f>
+        <v>28</v>
+      </c>
+      <c r="M4" s="88">
+        <v>10</v>
+      </c>
+      <c r="N4" s="70">
+        <v>2</v>
+      </c>
+      <c r="O4" s="89">
+        <f t="shared" ref="O4:O23" si="3">O$2*N4</f>
+        <v>20</v>
+      </c>
+      <c r="P4" s="96">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="97">
+        <v>6</v>
+      </c>
+      <c r="R4" s="98">
+        <f t="shared" ref="R4:R23" si="4">R$2*Q4</f>
+        <v>36</v>
+      </c>
+      <c r="S4" s="107">
+        <v>0</v>
+      </c>
+      <c r="T4" s="107">
+        <v>15</v>
+      </c>
+      <c r="U4" s="107">
+        <f>V4*(T4-1)+S4+W4</f>
+        <v>2312</v>
+      </c>
+      <c r="V4" s="111">
+        <f t="shared" ref="V4:V10" si="5">F4+I4+L4+O4+R4</f>
+        <v>108</v>
+      </c>
+      <c r="W4" s="108">
+        <f t="shared" ref="W4:W10" si="6">F$2*D4+I$2*G4+L$2*J4+O$2*M4+R$2*P4</f>
+        <v>800</v>
+      </c>
+      <c r="X4">
+        <f>J4</f>
+        <v>30</v>
+      </c>
+      <c r="Y4" s="12">
+        <f>J4+K4*(T4-1)</f>
         <v>86</v>
       </c>
-      <c r="D3" s="82">
-        <v>90</v>
-      </c>
-      <c r="E3" s="69">
-        <v>17</v>
-      </c>
-      <c r="F3" s="83">
-        <f>F$2*E3</f>
-        <v>17</v>
-      </c>
-      <c r="G3" s="126">
-        <v>100</v>
-      </c>
-      <c r="H3" s="126">
-        <v>0</v>
-      </c>
-      <c r="I3" s="126">
-        <f>I$2*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="86">
+      <c r="Z4">
+        <f>M4</f>
+        <v>10</v>
+      </c>
+      <c r="AA4" s="12">
+        <f>M4+N4*(T4-1)</f>
+        <v>38</v>
+      </c>
+      <c r="AB4">
+        <f>P4</f>
+        <v>35</v>
+      </c>
+      <c r="AC4" s="12">
+        <f>P34+Q4*(T4-1)</f>
+        <v>84</v>
+      </c>
+      <c r="AD4">
+        <f>D4</f>
+        <v>80</v>
+      </c>
+      <c r="AE4">
+        <f>D4+E4*(T4-1)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="131">
+        <v>3</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="80">
+        <v>120</v>
+      </c>
+      <c r="E5" s="68">
         <v>20</v>
       </c>
-      <c r="K3" s="70">
+      <c r="F5" s="81">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="105">
+        <v>50</v>
+      </c>
+      <c r="H5" s="105">
+        <v>1</v>
+      </c>
+      <c r="I5" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="84">
+        <v>20</v>
+      </c>
+      <c r="K5" s="69">
+        <v>2</v>
+      </c>
+      <c r="L5" s="85">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M5" s="88">
+        <v>15</v>
+      </c>
+      <c r="N5" s="70">
+        <v>4</v>
+      </c>
+      <c r="O5" s="89">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P5" s="96">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="97">
         <v>5</v>
       </c>
-      <c r="L3" s="87">
-        <f>L$2*K3</f>
+      <c r="R5" s="98">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S5" s="107">
+        <v>10</v>
+      </c>
+      <c r="T5" s="107">
+        <v>15</v>
+      </c>
+      <c r="U5" s="107">
+        <f t="shared" ref="U5:U21" si="7">V5*(T5-1)+S5+W5</f>
+        <v>2312</v>
+      </c>
+      <c r="V5" s="111">
+        <f t="shared" ref="V5:V21" si="8">F5+I5+L5+O5+R5</f>
+        <v>108</v>
+      </c>
+      <c r="W5" s="108">
+        <f t="shared" ref="W5:W21" si="9">F$2*D5+I$2*G5+L$2*J5+O$2*M5+R$2*P5</f>
+        <v>790</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X21" si="10">J5</f>
+        <v>20</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" ref="Y5:Y21" si="11">J5+K5*(T5-1)</f>
+        <v>48</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z21" si="12">M5</f>
+        <v>15</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" ref="AA5:AA21" si="13">M5+N5*(T5-1)</f>
+        <v>71</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB21" si="14">P5</f>
+        <v>30</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" ref="AC5:AC21" si="15">P35+Q5*(T5-1)</f>
+        <v>70</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD21" si="16">D5</f>
+        <v>120</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE21" si="17">D5+E5*(T5-1)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="131">
+        <v>4</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="80">
+        <v>177</v>
+      </c>
+      <c r="E6" s="68">
+        <v>40</v>
+      </c>
+      <c r="F6" s="81">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="105">
+        <v>50</v>
+      </c>
+      <c r="H6" s="105">
+        <v>1</v>
+      </c>
+      <c r="I6" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="84">
+        <v>19</v>
+      </c>
+      <c r="K6" s="69">
+        <v>2</v>
+      </c>
+      <c r="L6" s="85">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M6" s="88">
+        <v>10</v>
+      </c>
+      <c r="N6" s="70">
+        <v>2</v>
+      </c>
+      <c r="O6" s="89">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P6" s="96">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="97">
+        <v>5</v>
+      </c>
+      <c r="R6" s="98">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S6" s="107">
+        <v>10</v>
+      </c>
+      <c r="T6" s="107">
+        <v>15</v>
+      </c>
+      <c r="U6" s="107">
+        <f t="shared" si="7"/>
+        <v>2312</v>
+      </c>
+      <c r="V6" s="111">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="W6" s="108">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="Y6" s="12">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AA6" s="12">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="16"/>
+        <v>177</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="17"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="152" customFormat="1">
+      <c r="A7" s="133">
+        <v>5</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136">
+        <v>120</v>
+      </c>
+      <c r="E7" s="137">
+        <v>25</v>
+      </c>
+      <c r="F7" s="138">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="139">
+        <v>65</v>
+      </c>
+      <c r="H7" s="139">
+        <v>1</v>
+      </c>
+      <c r="I7" s="139">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="140">
+        <v>22</v>
+      </c>
+      <c r="K7" s="141">
+        <v>3</v>
+      </c>
+      <c r="L7" s="142">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M7" s="143">
+        <v>11</v>
+      </c>
+      <c r="N7" s="144">
+        <v>3</v>
+      </c>
+      <c r="O7" s="145">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P7" s="146">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="147">
+        <v>7</v>
+      </c>
+      <c r="R7" s="148">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="S7" s="149">
+        <v>10</v>
+      </c>
+      <c r="T7" s="149">
+        <v>25</v>
+      </c>
+      <c r="U7" s="149">
+        <f t="shared" si="7"/>
+        <v>3840</v>
+      </c>
+      <c r="V7" s="150">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="W7" s="151">
+        <f t="shared" si="9"/>
+        <v>902</v>
+      </c>
+      <c r="X7" s="152">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="Y7" s="153">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="Z7" s="152">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AA7" s="153">
+        <f t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="AB7" s="152">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="AC7" s="153">
+        <f t="shared" si="15"/>
+        <v>168</v>
+      </c>
+      <c r="AD7" s="152">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AE7" s="152">
+        <f t="shared" si="17"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="152" customFormat="1">
+      <c r="A8" s="154">
+        <v>6</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="136">
+        <v>103</v>
+      </c>
+      <c r="E8" s="137">
+        <v>25</v>
+      </c>
+      <c r="F8" s="138">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="139">
+        <v>63</v>
+      </c>
+      <c r="H8" s="139">
+        <v>1</v>
+      </c>
+      <c r="I8" s="139">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="140">
         <v>35</v>
       </c>
-      <c r="M3" s="90">
-        <v>10</v>
-      </c>
-      <c r="N3" s="71">
-        <v>1</v>
-      </c>
-      <c r="O3" s="91">
-        <f>O$2*N3</f>
-        <v>10</v>
-      </c>
-      <c r="P3" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="99">
-        <v>2</v>
-      </c>
-      <c r="R3" s="100">
-        <f>R$2*Q3</f>
-        <v>40</v>
-      </c>
-      <c r="S3" s="128">
-        <v>0</v>
-      </c>
-      <c r="T3" s="128">
-        <v>15</v>
-      </c>
-      <c r="U3" s="128">
-        <f>V3*(T3-1)+S3+W3</f>
-        <v>2378</v>
-      </c>
-      <c r="V3" s="132">
-        <f>F3+I3+L3+O3+R3</f>
-        <v>102</v>
-      </c>
-      <c r="W3" s="129">
-        <f>F$2*D3+I$2*G3+L$2*J3+O$2*M3+R$2*P3</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="68">
-        <v>2</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="82">
-        <v>90</v>
-      </c>
-      <c r="E4" s="69">
-        <v>16</v>
-      </c>
-      <c r="F4" s="83">
-        <f t="shared" ref="F4:F10" si="0">F$2*E4</f>
-        <v>16</v>
-      </c>
-      <c r="G4" s="126">
-        <v>100</v>
-      </c>
-      <c r="H4" s="126">
-        <v>0</v>
-      </c>
-      <c r="I4" s="126">
-        <f t="shared" ref="I4" si="1">I$2*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="86">
-        <v>20</v>
-      </c>
-      <c r="K4" s="70">
+      <c r="K8" s="141">
         <v>5</v>
       </c>
-      <c r="L4" s="87">
-        <f t="shared" ref="L4:L10" si="2">L$2*K4</f>
-        <v>35</v>
-      </c>
-      <c r="M4" s="90">
-        <v>10</v>
-      </c>
-      <c r="N4" s="71">
-        <v>1</v>
-      </c>
-      <c r="O4" s="91">
-        <f t="shared" ref="O4:O10" si="3">O$2*N4</f>
-        <v>10</v>
-      </c>
-      <c r="P4" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="99">
-        <v>2</v>
-      </c>
-      <c r="R4" s="100">
-        <f t="shared" ref="R4:R10" si="4">R$2*Q4</f>
-        <v>40</v>
-      </c>
-      <c r="S4" s="128">
-        <v>0</v>
-      </c>
-      <c r="T4" s="128">
-        <v>15</v>
-      </c>
-      <c r="U4" s="128">
-        <f t="shared" ref="U4:U10" si="5">V4*(T4-1)+V4+S4</f>
-        <v>1515</v>
-      </c>
-      <c r="V4" s="132">
-        <f t="shared" ref="V4:V10" si="6">F4+I4+L4+O4+R4</f>
-        <v>101</v>
-      </c>
-      <c r="W4" s="129">
-        <f t="shared" ref="W4:W10" si="7">F$2*D4+I$2*G4+L$2*J4+O$2*M4+R$2*P4</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="68">
-        <v>3</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="82">
-        <v>90</v>
-      </c>
-      <c r="E5" s="69">
-        <v>16</v>
-      </c>
-      <c r="F5" s="83">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G5" s="126">
-        <v>100</v>
-      </c>
-      <c r="H5" s="126">
-        <v>0</v>
-      </c>
-      <c r="I5" s="126">
-        <v>0</v>
-      </c>
-      <c r="J5" s="86">
-        <v>20</v>
-      </c>
-      <c r="K5" s="70">
-        <v>5</v>
-      </c>
-      <c r="L5" s="87">
+      <c r="L8" s="142">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M8" s="143">
         <v>10</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N8" s="144">
+        <v>3</v>
+      </c>
+      <c r="O8" s="145">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P8" s="146">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="147">
+        <v>6</v>
+      </c>
+      <c r="R8" s="148">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="S8" s="149">
+        <v>0</v>
+      </c>
+      <c r="T8" s="149">
+        <v>25</v>
+      </c>
+      <c r="U8" s="149">
+        <f t="shared" si="7"/>
+        <v>4042</v>
+      </c>
+      <c r="V8" s="150">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="W8" s="151">
+        <f t="shared" si="9"/>
+        <v>922</v>
+      </c>
+      <c r="X8" s="152">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="Y8" s="153">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="Z8" s="152">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AA8" s="153">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="AB8" s="152">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="AC8" s="153">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+      <c r="AD8" s="152">
+        <f t="shared" si="16"/>
+        <v>103</v>
+      </c>
+      <c r="AE8" s="152">
+        <f t="shared" si="17"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="152" customFormat="1">
+      <c r="A9" s="154">
+        <v>7</v>
+      </c>
+      <c r="B9" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="136">
+        <v>153</v>
+      </c>
+      <c r="E9" s="137">
+        <v>25</v>
+      </c>
+      <c r="F9" s="138">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="139">
+        <v>65</v>
+      </c>
+      <c r="H9" s="139">
         <v>1</v>
       </c>
-      <c r="O5" s="91">
+      <c r="I9" s="139">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="140">
+        <v>21</v>
+      </c>
+      <c r="K9" s="141">
+        <v>3</v>
+      </c>
+      <c r="L9" s="142">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M9" s="143">
+        <v>16</v>
+      </c>
+      <c r="N9" s="144">
+        <v>5</v>
+      </c>
+      <c r="O9" s="145">
         <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="P9" s="146">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="147">
+        <v>5</v>
+      </c>
+      <c r="R9" s="148">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S9" s="149">
         <v>10</v>
       </c>
-      <c r="P5" s="98">
+      <c r="T9" s="149">
+        <v>25</v>
+      </c>
+      <c r="U9" s="149">
+        <f t="shared" si="7"/>
+        <v>4042</v>
+      </c>
+      <c r="V9" s="150">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="W9" s="151">
+        <f t="shared" si="9"/>
+        <v>912</v>
+      </c>
+      <c r="X9" s="152">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="Y9" s="153">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="Z9" s="152">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="AA9" s="153">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="AB9" s="152">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="AC9" s="153">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="AD9" s="152">
+        <f t="shared" si="16"/>
+        <v>153</v>
+      </c>
+      <c r="AE9" s="152">
+        <f t="shared" si="17"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="152" customFormat="1">
+      <c r="A10" s="154">
+        <v>8</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="136">
+        <v>232</v>
+      </c>
+      <c r="E10" s="137">
+        <v>45</v>
+      </c>
+      <c r="F10" s="138">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="139">
+        <v>65</v>
+      </c>
+      <c r="H10" s="139">
+        <v>1</v>
+      </c>
+      <c r="I10" s="139">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="140">
+        <v>20</v>
+      </c>
+      <c r="K10" s="141">
+        <v>3</v>
+      </c>
+      <c r="L10" s="142">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M10" s="143">
+        <v>10</v>
+      </c>
+      <c r="N10" s="144">
+        <v>3</v>
+      </c>
+      <c r="O10" s="145">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P10" s="146">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="147">
+        <v>5</v>
+      </c>
+      <c r="R10" s="148">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S10" s="149">
+        <v>10</v>
+      </c>
+      <c r="T10" s="149">
+        <v>25</v>
+      </c>
+      <c r="U10" s="149">
+        <f t="shared" si="7"/>
+        <v>4042</v>
+      </c>
+      <c r="V10" s="150">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="W10" s="151">
+        <f t="shared" si="9"/>
+        <v>912</v>
+      </c>
+      <c r="X10" s="152">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="Y10" s="153">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="Z10" s="152">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AA10" s="153">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="AB10" s="152">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AC10" s="153">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="AD10" s="152">
+        <f t="shared" si="16"/>
+        <v>232</v>
+      </c>
+      <c r="AE10" s="152">
+        <f t="shared" si="17"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="131">
+        <v>9</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="80">
+        <v>150</v>
+      </c>
+      <c r="E11" s="68">
+        <v>30</v>
+      </c>
+      <c r="F11" s="81">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="105">
+        <v>80</v>
+      </c>
+      <c r="H11" s="105">
+        <v>1</v>
+      </c>
+      <c r="I11" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="84">
+        <v>24</v>
+      </c>
+      <c r="K11" s="69">
+        <v>4</v>
+      </c>
+      <c r="L11" s="85">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M11" s="88">
+        <v>13</v>
+      </c>
+      <c r="N11" s="70">
+        <v>4</v>
+      </c>
+      <c r="O11" s="89">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P11" s="96">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="97">
+        <v>8</v>
+      </c>
+      <c r="R11" s="98">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="S11" s="107">
+        <v>10</v>
+      </c>
+      <c r="T11" s="107">
+        <v>35</v>
+      </c>
+      <c r="U11" s="107">
+        <f t="shared" si="7"/>
+        <v>6160</v>
+      </c>
+      <c r="V11" s="111">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="W11" s="108">
+        <f t="shared" si="9"/>
+        <v>1050</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="Y11" s="12">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AA11" s="12">
+        <f t="shared" si="13"/>
+        <v>149</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+      <c r="AC11" s="12">
+        <f t="shared" si="15"/>
+        <v>272</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="17"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="131">
+        <v>10</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="80">
+        <v>120</v>
+      </c>
+      <c r="E12" s="68">
+        <v>30</v>
+      </c>
+      <c r="F12" s="81">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="105">
+        <v>75</v>
+      </c>
+      <c r="H12" s="105">
+        <v>1</v>
+      </c>
+      <c r="I12" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="84">
+        <v>39</v>
+      </c>
+      <c r="K12" s="69">
+        <v>6</v>
+      </c>
+      <c r="L12" s="85">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M12" s="88">
+        <v>12</v>
+      </c>
+      <c r="N12" s="70">
+        <v>4</v>
+      </c>
+      <c r="O12" s="89">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P12" s="96">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="97">
+        <v>7</v>
+      </c>
+      <c r="R12" s="98">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="S12" s="107">
+        <v>0</v>
+      </c>
+      <c r="T12" s="107">
+        <v>35</v>
+      </c>
+      <c r="U12" s="107">
+        <f t="shared" si="7"/>
+        <v>6449</v>
+      </c>
+      <c r="V12" s="111">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="W12" s="108">
+        <f t="shared" si="9"/>
+        <v>1077</v>
+      </c>
+      <c r="X12" s="156">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="Y12" s="157">
+        <f t="shared" si="11"/>
+        <v>243</v>
+      </c>
+      <c r="Z12" s="156">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AA12" s="157">
+        <f t="shared" si="13"/>
+        <v>148</v>
+      </c>
+      <c r="AB12" s="156">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="AC12" s="157">
+        <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="AD12" s="156">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AE12" s="156">
+        <f t="shared" si="17"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="131">
         <v>11</v>
       </c>
-      <c r="Q5" s="99">
-        <v>2</v>
-      </c>
-      <c r="R5" s="100">
+      <c r="B13" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="80">
+        <v>185</v>
+      </c>
+      <c r="E13" s="68">
+        <v>30</v>
+      </c>
+      <c r="F13" s="81">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="105">
+        <v>80</v>
+      </c>
+      <c r="H13" s="105">
+        <v>1</v>
+      </c>
+      <c r="I13" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="84">
+        <v>22</v>
+      </c>
+      <c r="K13" s="69">
+        <v>4</v>
+      </c>
+      <c r="L13" s="85">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M13" s="88">
+        <v>19</v>
+      </c>
+      <c r="N13" s="70">
+        <v>6</v>
+      </c>
+      <c r="O13" s="89">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="P13" s="96">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="97">
+        <v>6</v>
+      </c>
+      <c r="R13" s="98">
         <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="S13" s="107">
+        <v>10</v>
+      </c>
+      <c r="T13" s="107">
+        <v>35</v>
+      </c>
+      <c r="U13" s="107">
+        <f t="shared" si="7"/>
+        <v>6447</v>
+      </c>
+      <c r="V13" s="111">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="W13" s="108">
+        <f t="shared" si="9"/>
+        <v>1065</v>
+      </c>
+      <c r="X13" s="156">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="Y13" s="157">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="Z13" s="156">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AA13" s="157">
+        <f t="shared" si="13"/>
+        <v>223</v>
+      </c>
+      <c r="AB13" s="156">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="AC13" s="157">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="AD13" s="156">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+      <c r="AE13" s="156">
+        <f t="shared" si="17"/>
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="131">
+        <v>12</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="80">
+        <v>254</v>
+      </c>
+      <c r="E14" s="68">
+        <v>56</v>
+      </c>
+      <c r="F14" s="81">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G14" s="105">
+        <v>80</v>
+      </c>
+      <c r="H14" s="105">
+        <v>1</v>
+      </c>
+      <c r="I14" s="105">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="84">
+        <v>21</v>
+      </c>
+      <c r="K14" s="69">
+        <v>4</v>
+      </c>
+      <c r="L14" s="85">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M14" s="88">
+        <v>14</v>
+      </c>
+      <c r="N14" s="70">
+        <v>4</v>
+      </c>
+      <c r="O14" s="89">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="S5" s="128">
+      <c r="P14" s="96">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="97">
+        <v>5</v>
+      </c>
+      <c r="R14" s="98">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S14" s="107">
+        <v>10</v>
+      </c>
+      <c r="T14" s="107">
+        <v>35</v>
+      </c>
+      <c r="U14" s="107">
+        <f t="shared" si="7"/>
+        <v>6447</v>
+      </c>
+      <c r="V14" s="111">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="W14" s="108">
+        <f t="shared" si="9"/>
+        <v>1065</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="Y14" s="12">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="16"/>
+        <v>254</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="17"/>
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="131">
+        <v>13</v>
+      </c>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="128">
+      <c r="I15" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="131">
+        <v>14</v>
+      </c>
+      <c r="F16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="131">
         <v>15</v>
       </c>
-      <c r="U5" s="128">
-        <f t="shared" si="5"/>
-        <v>1515</v>
-      </c>
-      <c r="V5" s="132">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="W5" s="129">
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="107">
         <f t="shared" si="7"/>
-        <v>950</v>
+        <v>0</v>
+      </c>
+      <c r="V17" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="68">
-        <v>4</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="82">
-        <v>90</v>
-      </c>
-      <c r="E6" s="69">
+    <row r="18" spans="1:31">
+      <c r="A18" s="131">
+        <v>16</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="131">
+        <v>17</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="131">
+        <v>18</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="131">
+        <v>19</v>
+      </c>
+      <c r="F21" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="131">
         <v>20</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F22" s="81">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G6" s="126">
-        <v>100</v>
-      </c>
-      <c r="H6" s="126">
         <v>0</v>
       </c>
-      <c r="I6" s="126">
+      <c r="I22" s="105">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="86">
-        <v>20</v>
-      </c>
-      <c r="K6" s="70">
-        <v>5</v>
-      </c>
-      <c r="L6" s="87">
+      <c r="L22" s="85">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M6" s="90">
-        <v>10</v>
-      </c>
-      <c r="N6" s="71">
-        <v>1</v>
-      </c>
-      <c r="O6" s="91">
+        <v>0</v>
+      </c>
+      <c r="O22" s="89">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="P6" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="99">
-        <v>2</v>
-      </c>
-      <c r="R6" s="100">
+        <v>0</v>
+      </c>
+      <c r="R22" s="98">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="S6" s="128">
         <v>0</v>
       </c>
-      <c r="T6" s="128">
-        <v>15</v>
-      </c>
-      <c r="U6" s="128">
-        <f t="shared" si="5"/>
-        <v>1575</v>
-      </c>
-      <c r="V6" s="132">
-        <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="W6" s="129">
-        <f t="shared" si="7"/>
-        <v>950</v>
-      </c>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="68">
-        <v>5</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="82">
-        <v>90</v>
-      </c>
-      <c r="E7" s="69">
-        <v>16</v>
-      </c>
-      <c r="F7" s="83">
+    <row r="23" spans="1:31">
+      <c r="A23" s="131">
+        <v>21</v>
+      </c>
+      <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G7" s="126">
-        <v>100</v>
-      </c>
-      <c r="H7" s="126">
         <v>0</v>
       </c>
-      <c r="I7" s="126">
+      <c r="I23" s="105">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="86">
-        <v>20</v>
-      </c>
-      <c r="K7" s="70">
-        <v>5</v>
-      </c>
-      <c r="L7" s="87">
+      <c r="L23" s="85">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M7" s="90">
-        <v>10</v>
-      </c>
-      <c r="N7" s="71">
-        <v>1</v>
-      </c>
-      <c r="O7" s="91">
+        <v>0</v>
+      </c>
+      <c r="O23" s="89">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="P7" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="99">
-        <v>2</v>
-      </c>
-      <c r="R7" s="100">
+        <v>0</v>
+      </c>
+      <c r="R23" s="98">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="S7" s="128">
         <v>0</v>
       </c>
-      <c r="T7" s="128">
-        <v>15</v>
-      </c>
-      <c r="U7" s="128">
-        <f t="shared" si="5"/>
-        <v>1515</v>
-      </c>
-      <c r="V7" s="132">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="W7" s="129">
-        <f t="shared" si="7"/>
-        <v>950</v>
-      </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="68">
-        <v>6</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="82">
-        <v>90</v>
-      </c>
-      <c r="E8" s="69">
-        <v>16</v>
-      </c>
-      <c r="F8" s="83">
+    <row r="24" spans="1:31">
+      <c r="A24" s="131">
+        <v>22</v>
+      </c>
+      <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G8" s="126">
-        <v>120</v>
-      </c>
-      <c r="H8" s="126">
         <v>0</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I24" s="105">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="86">
-        <v>20</v>
-      </c>
-      <c r="K8" s="70">
-        <v>5</v>
-      </c>
-      <c r="L8" s="87">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M8" s="90">
-        <v>10</v>
-      </c>
-      <c r="N8" s="71">
-        <v>1</v>
-      </c>
-      <c r="O8" s="91">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="P8" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="99">
-        <v>2</v>
-      </c>
-      <c r="R8" s="100">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="S8" s="128">
-        <v>0</v>
-      </c>
-      <c r="T8" s="128">
-        <v>15</v>
-      </c>
-      <c r="U8" s="128">
-        <f t="shared" si="5"/>
-        <v>1515</v>
-      </c>
-      <c r="V8" s="132">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="W8" s="129">
-        <f t="shared" si="7"/>
-        <v>1030</v>
-      </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="68">
-        <v>7</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="82">
-        <v>90</v>
-      </c>
-      <c r="E9" s="69">
-        <v>16</v>
-      </c>
-      <c r="F9" s="83">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="126">
-        <v>100</v>
-      </c>
-      <c r="H9" s="126">
-        <v>0</v>
-      </c>
-      <c r="I9" s="126">
-        <v>0</v>
-      </c>
-      <c r="J9" s="86">
-        <v>20</v>
-      </c>
-      <c r="K9" s="70">
-        <v>5</v>
-      </c>
-      <c r="L9" s="87">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M9" s="90">
-        <v>10</v>
-      </c>
-      <c r="N9" s="71">
-        <v>1</v>
-      </c>
-      <c r="O9" s="91">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="P9" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="99">
-        <v>2</v>
-      </c>
-      <c r="R9" s="100">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="S9" s="128">
-        <v>0</v>
-      </c>
-      <c r="T9" s="128">
-        <v>15</v>
-      </c>
-      <c r="U9" s="128">
-        <f t="shared" si="5"/>
-        <v>1515</v>
-      </c>
-      <c r="V9" s="132">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="W9" s="129">
-        <f t="shared" si="7"/>
-        <v>950</v>
+    <row r="25" spans="1:31">
+      <c r="A25" s="131">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="68">
-        <v>8</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="82">
-        <v>90</v>
-      </c>
-      <c r="E10" s="69">
-        <v>16</v>
-      </c>
-      <c r="F10" s="83">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G10" s="126">
-        <v>100</v>
-      </c>
-      <c r="H10" s="126">
-        <v>0</v>
-      </c>
-      <c r="I10" s="126">
-        <v>0</v>
-      </c>
-      <c r="J10" s="86">
-        <v>20</v>
-      </c>
-      <c r="K10" s="70">
-        <v>5</v>
-      </c>
-      <c r="L10" s="87">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M10" s="90">
-        <v>10</v>
-      </c>
-      <c r="N10" s="71">
-        <v>1</v>
-      </c>
-      <c r="O10" s="91">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="P10" s="98">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="99">
-        <v>2</v>
-      </c>
-      <c r="R10" s="100">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="S10" s="128">
-        <v>0</v>
-      </c>
-      <c r="T10" s="128">
-        <v>15</v>
-      </c>
-      <c r="U10" s="128">
-        <f t="shared" si="5"/>
-        <v>1515</v>
-      </c>
-      <c r="V10" s="132">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="W10" s="129">
-        <f t="shared" si="7"/>
-        <v>950</v>
+    <row r="26" spans="1:31">
+      <c r="A26" s="131">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="68">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="68">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="68">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="68">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="68">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="68">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="68">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="68">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="68">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="68">
+    <row r="27" spans="1:31">
+      <c r="A27" s="131">
         <v>25</v>
       </c>
     </row>
@@ -33739,10 +35094,10 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" style="12" customWidth="1"/>
-    <col min="2" max="4" width="9" style="72"/>
+    <col min="2" max="4" width="9" style="71"/>
     <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="9" style="94"/>
-    <col min="7" max="8" width="9" style="72"/>
+    <col min="6" max="6" width="9" style="92"/>
+    <col min="7" max="8" width="9" style="71"/>
     <col min="9" max="9" width="9" style="12"/>
     <col min="13" max="13" width="9" style="12"/>
   </cols>
@@ -33751,103 +35106,103 @@
       <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="75" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="75" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="75" t="s">
         <v>76</v>
       </c>
       <c r="M1" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="77" customFormat="1">
+    <row r="2" spans="1:13" s="75" customFormat="1">
       <c r="A2" s="41"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="95" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="95" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="97"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="71">
         <f>职业表!D$3</f>
-        <v>90</v>
-      </c>
-      <c r="C3" s="72">
+        <v>100</v>
+      </c>
+      <c r="C3" s="71">
         <f>职业表!J$3</f>
         <v>20</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="71">
         <f>职业表!M$3</f>
         <v>10</v>
       </c>
       <c r="E3" s="12">
         <f>B3*职业表!F$2+等级表!C3*职业表!L$2+等级表!D3*职业表!O$2</f>
-        <v>330</v>
-      </c>
-      <c r="F3" s="94">
+        <v>340</v>
+      </c>
+      <c r="F3" s="92">
         <f>职业表!D$4</f>
-        <v>90</v>
-      </c>
-      <c r="G3" s="72">
+        <v>80</v>
+      </c>
+      <c r="G3" s="71">
         <f>职业表!J$4</f>
-        <v>20</v>
-      </c>
-      <c r="H3" s="72">
+        <v>30</v>
+      </c>
+      <c r="H3" s="71">
         <f>职业表!M$4</f>
         <v>10</v>
       </c>
       <c r="I3" s="12">
         <f>F3*职业表!F$2+等级表!G3*职业表!L$2+等级表!H3*职业表!O$2</f>
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="J3">
         <f>职业表!D$5</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <f>职业表!J$5</f>
@@ -33855,1548 +35210,1548 @@
       </c>
       <c r="L3">
         <f>职业表!M$5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M3" s="12">
         <f>J3*职业表!F$2+等级表!K3*职业表!L$2+等级表!L3*职业表!O$2</f>
-        <v>330</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="71">
         <f>B3 + 职业表!E$3</f>
-        <v>107</v>
-      </c>
-      <c r="C4" s="72">
+        <v>120</v>
+      </c>
+      <c r="C4" s="71">
         <f>C3 + 职业表!K$3</f>
-        <v>25</v>
-      </c>
-      <c r="D4" s="72">
+        <v>22</v>
+      </c>
+      <c r="D4" s="71">
         <f>D3 + 职业表!N$3</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12">
         <f>B4*职业表!F$2+等级表!C4*职业表!L$2+等级表!D4*职业表!O$2</f>
-        <v>392</v>
-      </c>
-      <c r="F4" s="94">
+        <v>394</v>
+      </c>
+      <c r="F4" s="92">
         <f>F3 + 职业表!E$4</f>
-        <v>106</v>
-      </c>
-      <c r="G4" s="72">
+        <v>100</v>
+      </c>
+      <c r="G4" s="71">
         <f>G3 + 职业表!K$4</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="72">
+        <v>34</v>
+      </c>
+      <c r="H4" s="71">
         <f>H3 + 职业表!N$4</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="12">
         <f>F4*职业表!F$2+等级表!G4*职业表!L$2+等级表!H4*职业表!O$2</f>
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="J4">
         <f>J3 + 职业表!E$5</f>
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <f>K3 + 职业表!K$5</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <f>L3 + 职业表!N$5</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4" s="12">
         <f>J4*职业表!F$2+等级表!K4*职业表!L$2+等级表!L4*职业表!O$2</f>
-        <v>391</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="71">
         <f>B4 + 职业表!E$3</f>
-        <v>124</v>
-      </c>
-      <c r="C5" s="72">
+        <v>140</v>
+      </c>
+      <c r="C5" s="71">
         <f>C4 + 职业表!K$3</f>
-        <v>30</v>
-      </c>
-      <c r="D5" s="72">
+        <v>24</v>
+      </c>
+      <c r="D5" s="71">
         <f>D4 + 职业表!N$3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="12">
         <f>B5*职业表!F$2+等级表!C5*职业表!L$2+等级表!D5*职业表!O$2</f>
-        <v>454</v>
-      </c>
-      <c r="F5" s="94">
+        <v>448</v>
+      </c>
+      <c r="F5" s="92">
         <f>F4 + 职业表!E$4</f>
-        <v>122</v>
-      </c>
-      <c r="G5" s="72">
+        <v>120</v>
+      </c>
+      <c r="G5" s="71">
         <f>G4 + 职业表!K$4</f>
-        <v>30</v>
-      </c>
-      <c r="H5" s="72">
+        <v>38</v>
+      </c>
+      <c r="H5" s="71">
         <f>H4 + 职业表!N$4</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" s="12">
         <f>F5*职业表!F$2+等级表!G5*职业表!L$2+等级表!H5*职业表!O$2</f>
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="J5">
         <f>J4 + 职业表!E$5</f>
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="K5">
         <f>K4 + 职业表!K$5</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <f>L4 + 职业表!N$5</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M5" s="12">
         <f>J5*职业表!F$2+等级表!K5*职业表!L$2+等级表!L5*职业表!O$2</f>
-        <v>452</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="71">
         <f>B5 + 职业表!E$3</f>
-        <v>141</v>
-      </c>
-      <c r="C6" s="72">
+        <v>160</v>
+      </c>
+      <c r="C6" s="71">
         <f>C5 + 职业表!K$3</f>
-        <v>35</v>
-      </c>
-      <c r="D6" s="72">
+        <v>26</v>
+      </c>
+      <c r="D6" s="71">
         <f>D5 + 职业表!N$3</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="12">
         <f>B6*职业表!F$2+等级表!C6*职业表!L$2+等级表!D6*职业表!O$2</f>
-        <v>516</v>
-      </c>
-      <c r="F6" s="94">
+        <v>502</v>
+      </c>
+      <c r="F6" s="92">
         <f>F5 + 职业表!E$4</f>
-        <v>138</v>
-      </c>
-      <c r="G6" s="72">
+        <v>140</v>
+      </c>
+      <c r="G6" s="71">
         <f>G5 + 职业表!K$4</f>
-        <v>35</v>
-      </c>
-      <c r="H6" s="72">
+        <v>42</v>
+      </c>
+      <c r="H6" s="71">
         <f>H5 + 职业表!N$4</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="12">
         <f>F6*职业表!F$2+等级表!G6*职业表!L$2+等级表!H6*职业表!O$2</f>
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="J6">
         <f>J5 + 职业表!E$5</f>
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="K6">
         <f>K5 + 职业表!K$5</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L6">
         <f>L5 + 职业表!N$5</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M6" s="12">
         <f>J6*职业表!F$2+等级表!K6*职业表!L$2+等级表!L6*职业表!O$2</f>
-        <v>513</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="71">
         <f>B6 + 职业表!E$3</f>
-        <v>158</v>
-      </c>
-      <c r="C7" s="72">
+        <v>180</v>
+      </c>
+      <c r="C7" s="71">
         <f>C6 + 职业表!K$3</f>
-        <v>40</v>
-      </c>
-      <c r="D7" s="72">
+        <v>28</v>
+      </c>
+      <c r="D7" s="71">
         <f>D6 + 职业表!N$3</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="12">
         <f>B7*职业表!F$2+等级表!C7*职业表!L$2+等级表!D7*职业表!O$2</f>
-        <v>578</v>
-      </c>
-      <c r="F7" s="94">
+        <v>556</v>
+      </c>
+      <c r="F7" s="92">
         <f>F6 + 职业表!E$4</f>
-        <v>154</v>
-      </c>
-      <c r="G7" s="72">
+        <v>160</v>
+      </c>
+      <c r="G7" s="71">
         <f>G6 + 职业表!K$4</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="72">
+        <v>46</v>
+      </c>
+      <c r="H7" s="71">
         <f>H6 + 职业表!N$4</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" s="12">
         <f>F7*职业表!F$2+等级表!G7*职业表!L$2+等级表!H7*职业表!O$2</f>
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="J7">
         <f>J6 + 职业表!E$5</f>
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="K7">
         <f>K6 + 职业表!K$5</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <f>L6 + 职业表!N$5</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M7" s="12">
         <f>J7*职业表!F$2+等级表!K7*职业表!L$2+等级表!L7*职业表!O$2</f>
-        <v>574</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="71">
         <f>B7 + 职业表!E$3</f>
-        <v>175</v>
-      </c>
-      <c r="C8" s="72">
+        <v>200</v>
+      </c>
+      <c r="C8" s="71">
         <f>C7 + 职业表!K$3</f>
-        <v>45</v>
-      </c>
-      <c r="D8" s="72">
+        <v>30</v>
+      </c>
+      <c r="D8" s="71">
         <f>D7 + 职业表!N$3</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12">
         <f>B8*职业表!F$2+等级表!C8*职业表!L$2+等级表!D8*职业表!O$2</f>
-        <v>640</v>
-      </c>
-      <c r="F8" s="94">
+        <v>610</v>
+      </c>
+      <c r="F8" s="92">
         <f>F7 + 职业表!E$4</f>
-        <v>170</v>
-      </c>
-      <c r="G8" s="72">
+        <v>180</v>
+      </c>
+      <c r="G8" s="71">
         <f>G7 + 职业表!K$4</f>
-        <v>45</v>
-      </c>
-      <c r="H8" s="72">
+        <v>50</v>
+      </c>
+      <c r="H8" s="71">
         <f>H7 + 职业表!N$4</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="12">
         <f>F8*职业表!F$2+等级表!G8*职业表!L$2+等级表!H8*职业表!O$2</f>
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="J8">
         <f>J7 + 职业表!E$5</f>
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K8">
         <f>K7 + 职业表!K$5</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <f>L7 + 职业表!N$5</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M8" s="12">
         <f>J8*职业表!F$2+等级表!K8*职业表!L$2+等级表!L8*职业表!O$2</f>
-        <v>635</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="71">
         <f>B8 + 职业表!E$3</f>
-        <v>192</v>
-      </c>
-      <c r="C9" s="72">
+        <v>220</v>
+      </c>
+      <c r="C9" s="71">
         <f>C8 + 职业表!K$3</f>
-        <v>50</v>
-      </c>
-      <c r="D9" s="72">
+        <v>32</v>
+      </c>
+      <c r="D9" s="71">
         <f>D8 + 职业表!N$3</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9" s="12">
         <f>B9*职业表!F$2+等级表!C9*职业表!L$2+等级表!D9*职业表!O$2</f>
-        <v>702</v>
-      </c>
-      <c r="F9" s="94">
+        <v>664</v>
+      </c>
+      <c r="F9" s="92">
         <f>F8 + 职业表!E$4</f>
-        <v>186</v>
-      </c>
-      <c r="G9" s="72">
+        <v>200</v>
+      </c>
+      <c r="G9" s="71">
         <f>G8 + 职业表!K$4</f>
-        <v>50</v>
-      </c>
-      <c r="H9" s="72">
+        <v>54</v>
+      </c>
+      <c r="H9" s="71">
         <f>H8 + 职业表!N$4</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="12">
         <f>F9*职业表!F$2+等级表!G9*职业表!L$2+等级表!H9*职业表!O$2</f>
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="J9">
         <f>J8 + 职业表!E$5</f>
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="K9">
         <f>K8 + 职业表!K$5</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <f>L8 + 职业表!N$5</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M9" s="12">
         <f>J9*职业表!F$2+等级表!K9*职业表!L$2+等级表!L9*职业表!O$2</f>
-        <v>696</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="71">
         <f>B9 + 职业表!E$3</f>
-        <v>209</v>
-      </c>
-      <c r="C10" s="72">
+        <v>240</v>
+      </c>
+      <c r="C10" s="71">
         <f>C9 + 职业表!K$3</f>
-        <v>55</v>
-      </c>
-      <c r="D10" s="72">
+        <v>34</v>
+      </c>
+      <c r="D10" s="71">
         <f>D9 + 职业表!N$3</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <f>B10*职业表!F$2+等级表!C10*职业表!L$2+等级表!D10*职业表!O$2</f>
-        <v>764</v>
-      </c>
-      <c r="F10" s="94">
+        <v>718</v>
+      </c>
+      <c r="F10" s="92">
         <f>F9 + 职业表!E$4</f>
-        <v>202</v>
-      </c>
-      <c r="G10" s="72">
+        <v>220</v>
+      </c>
+      <c r="G10" s="71">
         <f>G9 + 职业表!K$4</f>
-        <v>55</v>
-      </c>
-      <c r="H10" s="72">
+        <v>58</v>
+      </c>
+      <c r="H10" s="71">
         <f>H9 + 职业表!N$4</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I10" s="12">
         <f>F10*职业表!F$2+等级表!G10*职业表!L$2+等级表!H10*职业表!O$2</f>
-        <v>757</v>
+        <v>866</v>
       </c>
       <c r="J10">
         <f>J9 + 职业表!E$5</f>
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="K10">
         <f>K9 + 职业表!K$5</f>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="L10">
         <f>L9 + 职业表!N$5</f>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M10" s="12">
         <f>J10*职业表!F$2+等级表!K10*职业表!L$2+等级表!L10*职业表!O$2</f>
-        <v>757</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="71">
         <f>B10 + 职业表!E$3</f>
-        <v>226</v>
-      </c>
-      <c r="C11" s="72">
+        <v>260</v>
+      </c>
+      <c r="C11" s="71">
         <f>C10 + 职业表!K$3</f>
-        <v>60</v>
-      </c>
-      <c r="D11" s="72">
+        <v>36</v>
+      </c>
+      <c r="D11" s="71">
         <f>D10 + 职业表!N$3</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E11" s="12">
         <f>B11*职业表!F$2+等级表!C11*职业表!L$2+等级表!D11*职业表!O$2</f>
-        <v>826</v>
-      </c>
-      <c r="F11" s="94">
+        <v>772</v>
+      </c>
+      <c r="F11" s="92">
         <f>F10 + 职业表!E$4</f>
-        <v>218</v>
-      </c>
-      <c r="G11" s="72">
+        <v>240</v>
+      </c>
+      <c r="G11" s="71">
         <f>G10 + 职业表!K$4</f>
-        <v>60</v>
-      </c>
-      <c r="H11" s="72">
+        <v>62</v>
+      </c>
+      <c r="H11" s="71">
         <f>H10 + 职业表!N$4</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12">
         <f>F11*职业表!F$2+等级表!G11*职业表!L$2+等级表!H11*职业表!O$2</f>
-        <v>818</v>
+        <v>934</v>
       </c>
       <c r="J11">
         <f>J10 + 职业表!E$5</f>
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="K11">
         <f>K10 + 职业表!K$5</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L11">
         <f>L10 + 职业表!N$5</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M11" s="12">
         <f>J11*职业表!F$2+等级表!K11*职业表!L$2+等级表!L11*职业表!O$2</f>
-        <v>818</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="71">
         <f>B11 + 职业表!E$3</f>
-        <v>243</v>
-      </c>
-      <c r="C12" s="72">
+        <v>280</v>
+      </c>
+      <c r="C12" s="71">
         <f>C11 + 职业表!K$3</f>
-        <v>65</v>
-      </c>
-      <c r="D12" s="72">
+        <v>38</v>
+      </c>
+      <c r="D12" s="71">
         <f>D11 + 职业表!N$3</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" s="12">
         <f>B12*职业表!F$2+等级表!C12*职业表!L$2+等级表!D12*职业表!O$2</f>
-        <v>888</v>
-      </c>
-      <c r="F12" s="94">
+        <v>826</v>
+      </c>
+      <c r="F12" s="92">
         <f>F11 + 职业表!E$4</f>
-        <v>234</v>
-      </c>
-      <c r="G12" s="72">
+        <v>260</v>
+      </c>
+      <c r="G12" s="71">
         <f>G11 + 职业表!K$4</f>
-        <v>65</v>
-      </c>
-      <c r="H12" s="72">
+        <v>66</v>
+      </c>
+      <c r="H12" s="71">
         <f>H11 + 职业表!N$4</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I12" s="12">
         <f>F12*职业表!F$2+等级表!G12*职业表!L$2+等级表!H12*职业表!O$2</f>
-        <v>879</v>
+        <v>1002</v>
       </c>
       <c r="J12">
         <f>J11 + 职业表!E$5</f>
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="K12">
         <f>K11 + 职业表!K$5</f>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <f>L11 + 职业表!N$5</f>
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M12" s="12">
         <f>J12*职业表!F$2+等级表!K12*职业表!L$2+等级表!L12*职业表!O$2</f>
-        <v>879</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="71">
         <f>B12 + 职业表!E$3</f>
-        <v>260</v>
-      </c>
-      <c r="C13" s="72">
+        <v>300</v>
+      </c>
+      <c r="C13" s="71">
         <f>C12 + 职业表!K$3</f>
-        <v>70</v>
-      </c>
-      <c r="D13" s="72">
+        <v>40</v>
+      </c>
+      <c r="D13" s="71">
         <f>D12 + 职业表!N$3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12">
         <f>B13*职业表!F$2+等级表!C13*职业表!L$2+等级表!D13*职业表!O$2</f>
-        <v>950</v>
-      </c>
-      <c r="F13" s="94">
+        <v>880</v>
+      </c>
+      <c r="F13" s="92">
         <f>F12 + 职业表!E$4</f>
-        <v>250</v>
-      </c>
-      <c r="G13" s="72">
+        <v>280</v>
+      </c>
+      <c r="G13" s="71">
         <f>G12 + 职业表!K$4</f>
         <v>70</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="71">
         <f>H12 + 职业表!N$4</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I13" s="12">
         <f>F13*职业表!F$2+等级表!G13*职业表!L$2+等级表!H13*职业表!O$2</f>
-        <v>940</v>
+        <v>1070</v>
       </c>
       <c r="J13">
         <f>J12 + 职业表!E$5</f>
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K13">
         <f>K12 + 职业表!K$5</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <f>L12 + 职业表!N$5</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M13" s="12">
         <f>J13*职业表!F$2+等级表!K13*职业表!L$2+等级表!L13*职业表!O$2</f>
-        <v>940</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="71">
         <f>B13 + 职业表!E$3</f>
-        <v>277</v>
-      </c>
-      <c r="C14" s="72">
+        <v>320</v>
+      </c>
+      <c r="C14" s="71">
         <f>C13 + 职业表!K$3</f>
-        <v>75</v>
-      </c>
-      <c r="D14" s="72">
+        <v>42</v>
+      </c>
+      <c r="D14" s="71">
         <f>D13 + 职业表!N$3</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12">
         <f>B14*职业表!F$2+等级表!C14*职业表!L$2+等级表!D14*职业表!O$2</f>
-        <v>1012</v>
-      </c>
-      <c r="F14" s="94">
+        <v>934</v>
+      </c>
+      <c r="F14" s="92">
         <f>F13 + 职业表!E$4</f>
-        <v>266</v>
-      </c>
-      <c r="G14" s="72">
+        <v>300</v>
+      </c>
+      <c r="G14" s="71">
         <f>G13 + 职业表!K$4</f>
-        <v>75</v>
-      </c>
-      <c r="H14" s="72">
+        <v>74</v>
+      </c>
+      <c r="H14" s="71">
         <f>H13 + 职业表!N$4</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I14" s="12">
         <f>F14*职业表!F$2+等级表!G14*职业表!L$2+等级表!H14*职业表!O$2</f>
-        <v>1001</v>
+        <v>1138</v>
       </c>
       <c r="J14">
         <f>J13 + 职业表!E$5</f>
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="K14">
         <f>K13 + 职业表!K$5</f>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <f>L13 + 职业表!N$5</f>
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M14" s="12">
         <f>J14*职业表!F$2+等级表!K14*职业表!L$2+等级表!L14*职业表!O$2</f>
-        <v>1001</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="71">
         <f>B14 + 职业表!E$3</f>
-        <v>294</v>
-      </c>
-      <c r="C15" s="72">
+        <v>340</v>
+      </c>
+      <c r="C15" s="71">
         <f>C14 + 职业表!K$3</f>
-        <v>80</v>
-      </c>
-      <c r="D15" s="72">
+        <v>44</v>
+      </c>
+      <c r="D15" s="71">
         <f>D14 + 职业表!N$3</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12">
         <f>B15*职业表!F$2+等级表!C15*职业表!L$2+等级表!D15*职业表!O$2</f>
-        <v>1074</v>
-      </c>
-      <c r="F15" s="94">
+        <v>988</v>
+      </c>
+      <c r="F15" s="92">
         <f>F14 + 职业表!E$4</f>
-        <v>282</v>
-      </c>
-      <c r="G15" s="72">
+        <v>320</v>
+      </c>
+      <c r="G15" s="71">
         <f>G14 + 职业表!K$4</f>
-        <v>80</v>
-      </c>
-      <c r="H15" s="72">
+        <v>78</v>
+      </c>
+      <c r="H15" s="71">
         <f>H14 + 职业表!N$4</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12">
         <f>F15*职业表!F$2+等级表!G15*职业表!L$2+等级表!H15*职业表!O$2</f>
-        <v>1062</v>
+        <v>1206</v>
       </c>
       <c r="J15">
         <f>J14 + 职业表!E$5</f>
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="K15">
         <f>K14 + 职业表!K$5</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="L15">
         <f>L14 + 职业表!N$5</f>
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M15" s="12">
         <f>J15*职业表!F$2+等级表!K15*职业表!L$2+等级表!L15*职业表!O$2</f>
-        <v>1062</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="71">
         <f>B15 + 职业表!E$3</f>
-        <v>311</v>
-      </c>
-      <c r="C16" s="72">
+        <v>360</v>
+      </c>
+      <c r="C16" s="71">
         <f>C15 + 职业表!K$3</f>
-        <v>85</v>
-      </c>
-      <c r="D16" s="72">
+        <v>46</v>
+      </c>
+      <c r="D16" s="71">
         <f>D15 + 职业表!N$3</f>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E16" s="12">
         <f>B16*职业表!F$2+等级表!C16*职业表!L$2+等级表!D16*职业表!O$2</f>
-        <v>1136</v>
-      </c>
-      <c r="F16" s="94">
+        <v>1042</v>
+      </c>
+      <c r="F16" s="92">
         <f>F15 + 职业表!E$4</f>
-        <v>298</v>
-      </c>
-      <c r="G16" s="72">
+        <v>340</v>
+      </c>
+      <c r="G16" s="71">
         <f>G15 + 职业表!K$4</f>
-        <v>85</v>
-      </c>
-      <c r="H16" s="72">
+        <v>82</v>
+      </c>
+      <c r="H16" s="71">
         <f>H15 + 职业表!N$4</f>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12">
         <f>F16*职业表!F$2+等级表!G16*职业表!L$2+等级表!H16*职业表!O$2</f>
-        <v>1123</v>
+        <v>1274</v>
       </c>
       <c r="J16">
         <f>J15 + 职业表!E$5</f>
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="K16">
         <f>K15 + 职业表!K$5</f>
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <f>L15 + 职业表!N$5</f>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M16" s="12">
         <f>J16*职业表!F$2+等级表!K16*职业表!L$2+等级表!L16*职业表!O$2</f>
-        <v>1123</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="71">
         <f>B16 + 职业表!E$3</f>
-        <v>328</v>
-      </c>
-      <c r="C17" s="72">
+        <v>380</v>
+      </c>
+      <c r="C17" s="71">
         <f>C16 + 职业表!K$3</f>
-        <v>90</v>
-      </c>
-      <c r="D17" s="72">
+        <v>48</v>
+      </c>
+      <c r="D17" s="71">
         <f>D16 + 职业表!N$3</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E17" s="12">
         <f>B17*职业表!F$2+等级表!C17*职业表!L$2+等级表!D17*职业表!O$2</f>
-        <v>1198</v>
-      </c>
-      <c r="F17" s="94">
+        <v>1096</v>
+      </c>
+      <c r="F17" s="92">
         <f>F16 + 职业表!E$4</f>
-        <v>314</v>
-      </c>
-      <c r="G17" s="72">
+        <v>360</v>
+      </c>
+      <c r="G17" s="71">
         <f>G16 + 职业表!K$4</f>
-        <v>90</v>
-      </c>
-      <c r="H17" s="72">
+        <v>86</v>
+      </c>
+      <c r="H17" s="71">
         <f>H16 + 职业表!N$4</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I17" s="12">
         <f>F17*职业表!F$2+等级表!G17*职业表!L$2+等级表!H17*职业表!O$2</f>
-        <v>1184</v>
+        <v>1342</v>
       </c>
       <c r="J17">
         <f>J16 + 职业表!E$5</f>
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="K17">
         <f>K16 + 职业表!K$5</f>
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="L17">
         <f>L16 + 职业表!N$5</f>
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M17" s="12">
         <f>J17*职业表!F$2+等级表!K17*职业表!L$2+等级表!L17*职业表!O$2</f>
-        <v>1184</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="71">
         <f>B17 + 职业表!E$3</f>
-        <v>345</v>
-      </c>
-      <c r="C18" s="72">
+        <v>400</v>
+      </c>
+      <c r="C18" s="71">
         <f>C17 + 职业表!K$3</f>
-        <v>95</v>
-      </c>
-      <c r="D18" s="72">
+        <v>50</v>
+      </c>
+      <c r="D18" s="71">
         <f>D17 + 职业表!N$3</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12">
         <f>B18*职业表!F$2+等级表!C18*职业表!L$2+等级表!D18*职业表!O$2</f>
-        <v>1260</v>
-      </c>
-      <c r="F18" s="94">
+        <v>1150</v>
+      </c>
+      <c r="F18" s="92">
         <f>F17 + 职业表!E$4</f>
-        <v>330</v>
-      </c>
-      <c r="G18" s="72">
+        <v>380</v>
+      </c>
+      <c r="G18" s="71">
         <f>G17 + 职业表!K$4</f>
-        <v>95</v>
-      </c>
-      <c r="H18" s="72">
+        <v>90</v>
+      </c>
+      <c r="H18" s="71">
         <f>H17 + 职业表!N$4</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I18" s="12">
         <f>F18*职业表!F$2+等级表!G18*职业表!L$2+等级表!H18*职业表!O$2</f>
-        <v>1245</v>
+        <v>1410</v>
       </c>
       <c r="J18">
         <f>J17 + 职业表!E$5</f>
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K18">
         <f>K17 + 职业表!K$5</f>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="L18">
         <f>L17 + 职业表!N$5</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M18" s="12">
         <f>J18*职业表!F$2+等级表!K18*职业表!L$2+等级表!L18*职业表!O$2</f>
-        <v>1245</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="71">
         <f>B18 + 职业表!E$3</f>
-        <v>362</v>
-      </c>
-      <c r="C19" s="72">
+        <v>420</v>
+      </c>
+      <c r="C19" s="71">
         <f>C18 + 职业表!K$3</f>
-        <v>100</v>
-      </c>
-      <c r="D19" s="72">
+        <v>52</v>
+      </c>
+      <c r="D19" s="71">
         <f>D18 + 职业表!N$3</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E19" s="12">
         <f>B19*职业表!F$2+等级表!C19*职业表!L$2+等级表!D19*职业表!O$2</f>
-        <v>1322</v>
-      </c>
-      <c r="F19" s="94">
+        <v>1204</v>
+      </c>
+      <c r="F19" s="92">
         <f>F18 + 职业表!E$4</f>
-        <v>346</v>
-      </c>
-      <c r="G19" s="72">
+        <v>400</v>
+      </c>
+      <c r="G19" s="71">
         <f>G18 + 职业表!K$4</f>
-        <v>100</v>
-      </c>
-      <c r="H19" s="72">
+        <v>94</v>
+      </c>
+      <c r="H19" s="71">
         <f>H18 + 职业表!N$4</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I19" s="12">
         <f>F19*职业表!F$2+等级表!G19*职业表!L$2+等级表!H19*职业表!O$2</f>
-        <v>1306</v>
+        <v>1478</v>
       </c>
       <c r="J19">
         <f>J18 + 职业表!E$5</f>
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="K19">
         <f>K18 + 职业表!K$5</f>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L19">
         <f>L18 + 职业表!N$5</f>
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="M19" s="12">
         <f>J19*职业表!F$2+等级表!K19*职业表!L$2+等级表!L19*职业表!O$2</f>
-        <v>1306</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="71">
         <f>B19 + 职业表!E$3</f>
-        <v>379</v>
-      </c>
-      <c r="C20" s="72">
+        <v>440</v>
+      </c>
+      <c r="C20" s="71">
         <f>C19 + 职业表!K$3</f>
-        <v>105</v>
-      </c>
-      <c r="D20" s="72">
+        <v>54</v>
+      </c>
+      <c r="D20" s="71">
         <f>D19 + 职业表!N$3</f>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E20" s="12">
         <f>B20*职业表!F$2+等级表!C20*职业表!L$2+等级表!D20*职业表!O$2</f>
-        <v>1384</v>
-      </c>
-      <c r="F20" s="94">
+        <v>1258</v>
+      </c>
+      <c r="F20" s="92">
         <f>F19 + 职业表!E$4</f>
-        <v>362</v>
-      </c>
-      <c r="G20" s="72">
+        <v>420</v>
+      </c>
+      <c r="G20" s="71">
         <f>G19 + 职业表!K$4</f>
-        <v>105</v>
-      </c>
-      <c r="H20" s="72">
+        <v>98</v>
+      </c>
+      <c r="H20" s="71">
         <f>H19 + 职业表!N$4</f>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I20" s="12">
         <f>F20*职业表!F$2+等级表!G20*职业表!L$2+等级表!H20*职业表!O$2</f>
-        <v>1367</v>
+        <v>1546</v>
       </c>
       <c r="J20">
         <f>J19 + 职业表!E$5</f>
-        <v>362</v>
+        <v>460</v>
       </c>
       <c r="K20">
         <f>K19 + 职业表!K$5</f>
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="L20">
         <f>L19 + 职业表!N$5</f>
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="M20" s="12">
         <f>J20*职业表!F$2+等级表!K20*职业表!L$2+等级表!L20*职业表!O$2</f>
-        <v>1367</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="71">
         <f>B20 + 职业表!E$3</f>
-        <v>396</v>
-      </c>
-      <c r="C21" s="72">
+        <v>460</v>
+      </c>
+      <c r="C21" s="71">
         <f>C20 + 职业表!K$3</f>
-        <v>110</v>
-      </c>
-      <c r="D21" s="72">
+        <v>56</v>
+      </c>
+      <c r="D21" s="71">
         <f>D20 + 职业表!N$3</f>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E21" s="12">
         <f>B21*职业表!F$2+等级表!C21*职业表!L$2+等级表!D21*职业表!O$2</f>
-        <v>1446</v>
-      </c>
-      <c r="F21" s="94">
+        <v>1312</v>
+      </c>
+      <c r="F21" s="92">
         <f>F20 + 职业表!E$4</f>
-        <v>378</v>
-      </c>
-      <c r="G21" s="72">
+        <v>440</v>
+      </c>
+      <c r="G21" s="71">
         <f>G20 + 职业表!K$4</f>
-        <v>110</v>
-      </c>
-      <c r="H21" s="72">
+        <v>102</v>
+      </c>
+      <c r="H21" s="71">
         <f>H20 + 职业表!N$4</f>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I21" s="12">
         <f>F21*职业表!F$2+等级表!G21*职业表!L$2+等级表!H21*职业表!O$2</f>
-        <v>1428</v>
+        <v>1614</v>
       </c>
       <c r="J21">
         <f>J20 + 职业表!E$5</f>
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="K21">
         <f>K20 + 职业表!K$5</f>
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="L21">
         <f>L20 + 职业表!N$5</f>
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="M21" s="12">
         <f>J21*职业表!F$2+等级表!K21*职业表!L$2+等级表!L21*职业表!O$2</f>
-        <v>1428</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="71">
         <f>B21 + 职业表!E$3</f>
-        <v>413</v>
-      </c>
-      <c r="C22" s="72">
+        <v>480</v>
+      </c>
+      <c r="C22" s="71">
         <f>C21 + 职业表!K$3</f>
-        <v>115</v>
-      </c>
-      <c r="D22" s="72">
+        <v>58</v>
+      </c>
+      <c r="D22" s="71">
         <f>D21 + 职业表!N$3</f>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12">
         <f>B22*职业表!F$2+等级表!C22*职业表!L$2+等级表!D22*职业表!O$2</f>
-        <v>1508</v>
-      </c>
-      <c r="F22" s="94">
+        <v>1366</v>
+      </c>
+      <c r="F22" s="92">
         <f>F21 + 职业表!E$4</f>
-        <v>394</v>
-      </c>
-      <c r="G22" s="72">
+        <v>460</v>
+      </c>
+      <c r="G22" s="71">
         <f>G21 + 职业表!K$4</f>
-        <v>115</v>
-      </c>
-      <c r="H22" s="72">
+        <v>106</v>
+      </c>
+      <c r="H22" s="71">
         <f>H21 + 职业表!N$4</f>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I22" s="12">
         <f>F22*职业表!F$2+等级表!G22*职业表!L$2+等级表!H22*职业表!O$2</f>
-        <v>1489</v>
+        <v>1682</v>
       </c>
       <c r="J22">
         <f>J21 + 职业表!E$5</f>
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="K22">
         <f>K21 + 职业表!K$5</f>
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="L22">
         <f>L21 + 职业表!N$5</f>
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="M22" s="12">
         <f>J22*职业表!F$2+等级表!K22*职业表!L$2+等级表!L22*职业表!O$2</f>
-        <v>1489</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="71">
         <f>B22 + 职业表!E$3</f>
-        <v>430</v>
-      </c>
-      <c r="C23" s="72">
+        <v>500</v>
+      </c>
+      <c r="C23" s="71">
         <f>C22 + 职业表!K$3</f>
-        <v>120</v>
-      </c>
-      <c r="D23" s="72">
+        <v>60</v>
+      </c>
+      <c r="D23" s="71">
         <f>D22 + 职业表!N$3</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12">
         <f>B23*职业表!F$2+等级表!C23*职业表!L$2+等级表!D23*职业表!O$2</f>
-        <v>1570</v>
-      </c>
-      <c r="F23" s="94">
+        <v>1420</v>
+      </c>
+      <c r="F23" s="92">
         <f>F22 + 职业表!E$4</f>
-        <v>410</v>
-      </c>
-      <c r="G23" s="72">
+        <v>480</v>
+      </c>
+      <c r="G23" s="71">
         <f>G22 + 职业表!K$4</f>
-        <v>120</v>
-      </c>
-      <c r="H23" s="72">
+        <v>110</v>
+      </c>
+      <c r="H23" s="71">
         <f>H22 + 职业表!N$4</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I23" s="12">
         <f>F23*职业表!F$2+等级表!G23*职业表!L$2+等级表!H23*职业表!O$2</f>
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="J23">
         <f>J22 + 职业表!E$5</f>
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="K23">
         <f>K22 + 职业表!K$5</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L23">
         <f>L22 + 职业表!N$5</f>
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="M23" s="12">
         <f>J23*职业表!F$2+等级表!K23*职业表!L$2+等级表!L23*职业表!O$2</f>
-        <v>1550</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="71">
         <f>B23 + 职业表!E$3</f>
-        <v>447</v>
-      </c>
-      <c r="C24" s="72">
+        <v>520</v>
+      </c>
+      <c r="C24" s="71">
         <f>C23 + 职业表!K$3</f>
-        <v>125</v>
-      </c>
-      <c r="D24" s="72">
+        <v>62</v>
+      </c>
+      <c r="D24" s="71">
         <f>D23 + 职业表!N$3</f>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E24" s="12">
         <f>B24*职业表!F$2+等级表!C24*职业表!L$2+等级表!D24*职业表!O$2</f>
-        <v>1632</v>
-      </c>
-      <c r="F24" s="94">
+        <v>1474</v>
+      </c>
+      <c r="F24" s="92">
         <f>F23 + 职业表!E$4</f>
-        <v>426</v>
-      </c>
-      <c r="G24" s="72">
+        <v>500</v>
+      </c>
+      <c r="G24" s="71">
         <f>G23 + 职业表!K$4</f>
-        <v>125</v>
-      </c>
-      <c r="H24" s="72">
+        <v>114</v>
+      </c>
+      <c r="H24" s="71">
         <f>H23 + 职业表!N$4</f>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I24" s="12">
         <f>F24*职业表!F$2+等级表!G24*职业表!L$2+等级表!H24*职业表!O$2</f>
-        <v>1611</v>
+        <v>1818</v>
       </c>
       <c r="J24">
         <f>J23 + 职业表!E$5</f>
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="K24">
         <f>K23 + 职业表!K$5</f>
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L24">
         <f>L23 + 职业表!N$5</f>
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M24" s="12">
         <f>J24*职业表!F$2+等级表!K24*职业表!L$2+等级表!L24*职业表!O$2</f>
-        <v>1611</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="71">
         <f>B24 + 职业表!E$3</f>
-        <v>464</v>
-      </c>
-      <c r="C25" s="72">
+        <v>540</v>
+      </c>
+      <c r="C25" s="71">
         <f>C24 + 职业表!K$3</f>
-        <v>130</v>
-      </c>
-      <c r="D25" s="72">
+        <v>64</v>
+      </c>
+      <c r="D25" s="71">
         <f>D24 + 职业表!N$3</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E25" s="12">
         <f>B25*职业表!F$2+等级表!C25*职业表!L$2+等级表!D25*职业表!O$2</f>
-        <v>1694</v>
-      </c>
-      <c r="F25" s="94">
+        <v>1528</v>
+      </c>
+      <c r="F25" s="92">
         <f>F24 + 职业表!E$4</f>
-        <v>442</v>
-      </c>
-      <c r="G25" s="72">
+        <v>520</v>
+      </c>
+      <c r="G25" s="71">
         <f>G24 + 职业表!K$4</f>
-        <v>130</v>
-      </c>
-      <c r="H25" s="72">
+        <v>118</v>
+      </c>
+      <c r="H25" s="71">
         <f>H24 + 职业表!N$4</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I25" s="12">
         <f>F25*职业表!F$2+等级表!G25*职业表!L$2+等级表!H25*职业表!O$2</f>
-        <v>1672</v>
+        <v>1886</v>
       </c>
       <c r="J25">
         <f>J24 + 职业表!E$5</f>
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="K25">
         <f>K24 + 职业表!K$5</f>
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="L25">
         <f>L24 + 职业表!N$5</f>
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="M25" s="12">
         <f>J25*职业表!F$2+等级表!K25*职业表!L$2+等级表!L25*职业表!O$2</f>
-        <v>1672</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="71">
         <f>B25 + 职业表!E$3</f>
-        <v>481</v>
-      </c>
-      <c r="C26" s="72">
+        <v>560</v>
+      </c>
+      <c r="C26" s="71">
         <f>C25 + 职业表!K$3</f>
-        <v>135</v>
-      </c>
-      <c r="D26" s="72">
+        <v>66</v>
+      </c>
+      <c r="D26" s="71">
         <f>D25 + 职业表!N$3</f>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E26" s="12">
         <f>B26*职业表!F$2+等级表!C26*职业表!L$2+等级表!D26*职业表!O$2</f>
-        <v>1756</v>
-      </c>
-      <c r="F26" s="94">
+        <v>1582</v>
+      </c>
+      <c r="F26" s="92">
         <f>F25 + 职业表!E$4</f>
-        <v>458</v>
-      </c>
-      <c r="G26" s="72">
+        <v>540</v>
+      </c>
+      <c r="G26" s="71">
         <f>G25 + 职业表!K$4</f>
-        <v>135</v>
-      </c>
-      <c r="H26" s="72">
+        <v>122</v>
+      </c>
+      <c r="H26" s="71">
         <f>H25 + 职业表!N$4</f>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I26" s="12">
         <f>F26*职业表!F$2+等级表!G26*职业表!L$2+等级表!H26*职业表!O$2</f>
-        <v>1733</v>
+        <v>1954</v>
       </c>
       <c r="J26">
         <f>J25 + 职业表!E$5</f>
-        <v>458</v>
+        <v>580</v>
       </c>
       <c r="K26">
         <f>K25 + 职业表!K$5</f>
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="L26">
         <f>L25 + 职业表!N$5</f>
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="M26" s="12">
         <f>J26*职业表!F$2+等级表!K26*职业表!L$2+等级表!L26*职业表!O$2</f>
-        <v>1733</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="71">
         <f>B26 + 职业表!E$3</f>
-        <v>498</v>
-      </c>
-      <c r="C27" s="72">
+        <v>580</v>
+      </c>
+      <c r="C27" s="71">
         <f>C26 + 职业表!K$3</f>
-        <v>140</v>
-      </c>
-      <c r="D27" s="72">
+        <v>68</v>
+      </c>
+      <c r="D27" s="71">
         <f>D26 + 职业表!N$3</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E27" s="12">
         <f>B27*职业表!F$2+等级表!C27*职业表!L$2+等级表!D27*职业表!O$2</f>
-        <v>1818</v>
-      </c>
-      <c r="F27" s="94">
+        <v>1636</v>
+      </c>
+      <c r="F27" s="92">
         <f>F26 + 职业表!E$4</f>
-        <v>474</v>
-      </c>
-      <c r="G27" s="72">
+        <v>560</v>
+      </c>
+      <c r="G27" s="71">
         <f>G26 + 职业表!K$4</f>
-        <v>140</v>
-      </c>
-      <c r="H27" s="72">
+        <v>126</v>
+      </c>
+      <c r="H27" s="71">
         <f>H26 + 职业表!N$4</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I27" s="12">
         <f>F27*职业表!F$2+等级表!G27*职业表!L$2+等级表!H27*职业表!O$2</f>
-        <v>1794</v>
+        <v>2022</v>
       </c>
       <c r="J27">
         <f>J26 + 职业表!E$5</f>
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="K27">
         <f>K26 + 职业表!K$5</f>
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="L27">
         <f>L26 + 职业表!N$5</f>
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M27" s="12">
         <f>J27*职业表!F$2+等级表!K27*职业表!L$2+等级表!L27*职业表!O$2</f>
-        <v>1794</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="71">
         <f>B27 + 职业表!E$3</f>
-        <v>515</v>
-      </c>
-      <c r="C28" s="72">
+        <v>600</v>
+      </c>
+      <c r="C28" s="71">
         <f>C27 + 职业表!K$3</f>
-        <v>145</v>
-      </c>
-      <c r="D28" s="72">
+        <v>70</v>
+      </c>
+      <c r="D28" s="71">
         <f>D27 + 职业表!N$3</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E28" s="12">
         <f>B28*职业表!F$2+等级表!C28*职业表!L$2+等级表!D28*职业表!O$2</f>
-        <v>1880</v>
-      </c>
-      <c r="F28" s="94">
+        <v>1690</v>
+      </c>
+      <c r="F28" s="92">
         <f>F27 + 职业表!E$4</f>
-        <v>490</v>
-      </c>
-      <c r="G28" s="72">
+        <v>580</v>
+      </c>
+      <c r="G28" s="71">
         <f>G27 + 职业表!K$4</f>
-        <v>145</v>
-      </c>
-      <c r="H28" s="72">
+        <v>130</v>
+      </c>
+      <c r="H28" s="71">
         <f>H27 + 职业表!N$4</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I28" s="12">
         <f>F28*职业表!F$2+等级表!G28*职业表!L$2+等级表!H28*职业表!O$2</f>
-        <v>1855</v>
+        <v>2090</v>
       </c>
       <c r="J28">
         <f>J27 + 职业表!E$5</f>
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K28">
         <f>K27 + 职业表!K$5</f>
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="L28">
         <f>L27 + 职业表!N$5</f>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M28" s="12">
         <f>J28*职业表!F$2+等级表!K28*职业表!L$2+等级表!L28*职业表!O$2</f>
-        <v>1855</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <f>B28 + 职业表!E$3</f>
-        <v>532</v>
-      </c>
-      <c r="C29" s="72">
+        <v>620</v>
+      </c>
+      <c r="C29" s="71">
         <f>C28 + 职业表!K$3</f>
-        <v>150</v>
-      </c>
-      <c r="D29" s="72">
+        <v>72</v>
+      </c>
+      <c r="D29" s="71">
         <f>D28 + 职业表!N$3</f>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E29" s="12">
         <f>B29*职业表!F$2+等级表!C29*职业表!L$2+等级表!D29*职业表!O$2</f>
-        <v>1942</v>
-      </c>
-      <c r="F29" s="94">
+        <v>1744</v>
+      </c>
+      <c r="F29" s="92">
         <f>F28 + 职业表!E$4</f>
-        <v>506</v>
-      </c>
-      <c r="G29" s="72">
+        <v>600</v>
+      </c>
+      <c r="G29" s="71">
         <f>G28 + 职业表!K$4</f>
-        <v>150</v>
-      </c>
-      <c r="H29" s="72">
+        <v>134</v>
+      </c>
+      <c r="H29" s="71">
         <f>H28 + 职业表!N$4</f>
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I29" s="12">
         <f>F29*职业表!F$2+等级表!G29*职业表!L$2+等级表!H29*职业表!O$2</f>
-        <v>1916</v>
+        <v>2158</v>
       </c>
       <c r="J29">
         <f>J28 + 职业表!E$5</f>
-        <v>506</v>
+        <v>640</v>
       </c>
       <c r="K29">
         <f>K28 + 职业表!K$5</f>
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="L29">
         <f>L28 + 职业表!N$5</f>
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="M29" s="12">
         <f>J29*职业表!F$2+等级表!K29*职业表!L$2+等级表!L29*职业表!O$2</f>
-        <v>1916</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <f>B29 + 职业表!E$3</f>
-        <v>549</v>
-      </c>
-      <c r="C30" s="72">
+        <v>640</v>
+      </c>
+      <c r="C30" s="71">
         <f>C29 + 职业表!K$3</f>
-        <v>155</v>
-      </c>
-      <c r="D30" s="72">
+        <v>74</v>
+      </c>
+      <c r="D30" s="71">
         <f>D29 + 职业表!N$3</f>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E30" s="12">
         <f>B30*职业表!F$2+等级表!C30*职业表!L$2+等级表!D30*职业表!O$2</f>
-        <v>2004</v>
-      </c>
-      <c r="F30" s="94">
+        <v>1798</v>
+      </c>
+      <c r="F30" s="92">
         <f>F29 + 职业表!E$4</f>
-        <v>522</v>
-      </c>
-      <c r="G30" s="72">
+        <v>620</v>
+      </c>
+      <c r="G30" s="71">
         <f>G29 + 职业表!K$4</f>
-        <v>155</v>
-      </c>
-      <c r="H30" s="72">
+        <v>138</v>
+      </c>
+      <c r="H30" s="71">
         <f>H29 + 职业表!N$4</f>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I30" s="12">
         <f>F30*职业表!F$2+等级表!G30*职业表!L$2+等级表!H30*职业表!O$2</f>
-        <v>1977</v>
+        <v>2226</v>
       </c>
       <c r="J30">
         <f>J29 + 职业表!E$5</f>
-        <v>522</v>
+        <v>660</v>
       </c>
       <c r="K30">
         <f>K29 + 职业表!K$5</f>
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="L30">
         <f>L29 + 职业表!N$5</f>
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="M30" s="12">
         <f>J30*职业表!F$2+等级表!K30*职业表!L$2+等级表!L30*职业表!O$2</f>
-        <v>1977</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="71">
         <f>B30 + 职业表!E$3</f>
-        <v>566</v>
-      </c>
-      <c r="C31" s="72">
+        <v>660</v>
+      </c>
+      <c r="C31" s="71">
         <f>C30 + 职业表!K$3</f>
-        <v>160</v>
-      </c>
-      <c r="D31" s="72">
+        <v>76</v>
+      </c>
+      <c r="D31" s="71">
         <f>D30 + 职业表!N$3</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E31" s="12">
         <f>B31*职业表!F$2+等级表!C31*职业表!L$2+等级表!D31*职业表!O$2</f>
-        <v>2066</v>
-      </c>
-      <c r="F31" s="94">
+        <v>1852</v>
+      </c>
+      <c r="F31" s="92">
         <f>F30 + 职业表!E$4</f>
-        <v>538</v>
-      </c>
-      <c r="G31" s="72">
+        <v>640</v>
+      </c>
+      <c r="G31" s="71">
         <f>G30 + 职业表!K$4</f>
-        <v>160</v>
-      </c>
-      <c r="H31" s="72">
+        <v>142</v>
+      </c>
+      <c r="H31" s="71">
         <f>H30 + 职业表!N$4</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I31" s="12">
         <f>F31*职业表!F$2+等级表!G31*职业表!L$2+等级表!H31*职业表!O$2</f>
-        <v>2038</v>
+        <v>2294</v>
       </c>
       <c r="J31">
         <f>J30 + 职业表!E$5</f>
-        <v>538</v>
+        <v>680</v>
       </c>
       <c r="K31">
         <f>K30 + 职业表!K$5</f>
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="L31">
         <f>L30 + 职业表!N$5</f>
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="M31" s="12">
         <f>J31*职业表!F$2+等级表!K31*职业表!L$2+等级表!L31*职业表!O$2</f>
-        <v>2038</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="71">
         <f>B31 + 职业表!E$3</f>
-        <v>583</v>
-      </c>
-      <c r="C32" s="72">
+        <v>680</v>
+      </c>
+      <c r="C32" s="71">
         <f>C31 + 职业表!K$3</f>
-        <v>165</v>
-      </c>
-      <c r="D32" s="72">
+        <v>78</v>
+      </c>
+      <c r="D32" s="71">
         <f>D31 + 职业表!N$3</f>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E32" s="12">
         <f>B32*职业表!F$2+等级表!C32*职业表!L$2+等级表!D32*职业表!O$2</f>
-        <v>2128</v>
-      </c>
-      <c r="F32" s="94">
+        <v>1906</v>
+      </c>
+      <c r="F32" s="92">
         <f>F31 + 职业表!E$4</f>
-        <v>554</v>
-      </c>
-      <c r="G32" s="72">
+        <v>660</v>
+      </c>
+      <c r="G32" s="71">
         <f>G31 + 职业表!K$4</f>
-        <v>165</v>
-      </c>
-      <c r="H32" s="72">
+        <v>146</v>
+      </c>
+      <c r="H32" s="71">
         <f>H31 + 职业表!N$4</f>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I32" s="12">
         <f>F32*职业表!F$2+等级表!G32*职业表!L$2+等级表!H32*职业表!O$2</f>
-        <v>2099</v>
+        <v>2362</v>
       </c>
       <c r="J32">
         <f>J31 + 职业表!E$5</f>
-        <v>554</v>
+        <v>700</v>
       </c>
       <c r="K32">
         <f>K31 + 职业表!K$5</f>
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="L32">
         <f>L31 + 职业表!N$5</f>
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="M32" s="12">
         <f>J32*职业表!F$2+等级表!K32*职业表!L$2+等级表!L32*职业表!O$2</f>
-        <v>2099</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/数值表.xlsx
+++ b/Documents/数值表.xlsx
@@ -2576,24 +2576,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="44756352"/>
-        <c:axId val="44950656"/>
+        <c:axId val="73579904"/>
+        <c:axId val="128328832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44756352"/>
+        <c:axId val="73579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44950656"/>
+        <c:crossAx val="128328832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44950656"/>
+        <c:axId val="128328832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2601,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44756352"/>
+        <c:crossAx val="73579904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,7 +2613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3591,24 +3591,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80329344"/>
-        <c:axId val="85139840"/>
+        <c:axId val="128346752"/>
+        <c:axId val="128352640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80329344"/>
+        <c:axId val="128346752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85139840"/>
+        <c:crossAx val="128352640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85139840"/>
+        <c:axId val="128352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80329344"/>
+        <c:crossAx val="128346752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3628,7 +3628,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4225,24 +4225,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92838528"/>
-        <c:axId val="44892544"/>
+        <c:axId val="128373888"/>
+        <c:axId val="128375424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92838528"/>
+        <c:axId val="128373888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44892544"/>
+        <c:crossAx val="128375424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44892544"/>
+        <c:axId val="128375424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4250,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92838528"/>
+        <c:crossAx val="128373888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4262,7 +4262,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4587,24 +4587,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46080000"/>
-        <c:axId val="46081536"/>
+        <c:axId val="128391424"/>
+        <c:axId val="158167040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46080000"/>
+        <c:axId val="128391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46081536"/>
+        <c:crossAx val="158167040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46081536"/>
+        <c:axId val="158167040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4612,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46080000"/>
+        <c:crossAx val="128391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4624,7 +4624,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33546,10 +33546,10 @@
   <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z21" sqref="Z21"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33979,7 +33979,7 @@
         <v>15</v>
       </c>
       <c r="AB4" s="98">
-        <f t="shared" ref="AB3:AB15" si="13">AC4*(AA4-1)+Z4</f>
+        <f t="shared" ref="AB4:AB15" si="13">AC4*(AA4-1)+Z4</f>
         <v>4179</v>
       </c>
       <c r="AC4" s="115">
@@ -43414,10 +43414,10 @@
   <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD76"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43767,11 +43767,11 @@
         <v>183</v>
       </c>
       <c r="D6" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F6" s="78">
         <v>0</v>
@@ -43829,7 +43829,7 @@
       </c>
       <c r="V6" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -43843,11 +43843,11 @@
         <v>185</v>
       </c>
       <c r="D7" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E7" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F7" s="78">
         <v>0</v>
@@ -43905,7 +43905,7 @@
       </c>
       <c r="V7" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -43919,11 +43919,11 @@
         <v>187</v>
       </c>
       <c r="D8" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E8" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F8" s="78">
         <v>0</v>
@@ -43981,7 +43981,7 @@
       </c>
       <c r="V8" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -43995,11 +43995,11 @@
         <v>189</v>
       </c>
       <c r="D9" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E9" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F9" s="78">
         <v>0</v>
@@ -44057,7 +44057,7 @@
       </c>
       <c r="V9" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -44071,11 +44071,11 @@
         <v>191</v>
       </c>
       <c r="D10" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E10" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F10" s="78">
         <v>0</v>
@@ -44133,7 +44133,7 @@
       </c>
       <c r="V10" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -44147,11 +44147,11 @@
         <v>193</v>
       </c>
       <c r="D11" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E11" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F11" s="78">
         <v>0</v>
@@ -44209,7 +44209,7 @@
       </c>
       <c r="V11" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -44223,11 +44223,11 @@
         <v>195</v>
       </c>
       <c r="D12" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E12" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F12" s="78">
         <v>0</v>
@@ -44285,7 +44285,7 @@
       </c>
       <c r="V12" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -44299,11 +44299,11 @@
         <v>197</v>
       </c>
       <c r="D13" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E13" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F13" s="78">
         <v>0</v>
@@ -44361,7 +44361,7 @@
       </c>
       <c r="V13" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -44375,11 +44375,11 @@
         <v>199</v>
       </c>
       <c r="D14" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E14" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F14" s="78">
         <v>0</v>
@@ -44437,7 +44437,7 @@
       </c>
       <c r="V14" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -44451,11 +44451,11 @@
         <v>201</v>
       </c>
       <c r="D15" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E15" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F15" s="78">
         <v>0</v>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="V15" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -44527,11 +44527,11 @@
         <v>203</v>
       </c>
       <c r="D16" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E16" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F16" s="78">
         <v>0</v>
@@ -44589,7 +44589,7 @@
       </c>
       <c r="V16" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -44603,11 +44603,11 @@
         <v>205</v>
       </c>
       <c r="D17" s="72">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E17" s="72">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F17" s="78">
         <v>0</v>
@@ -44665,7 +44665,7 @@
       </c>
       <c r="V17" s="80">
         <f t="shared" si="6"/>
-        <v>641.66666666666674</v>
+        <v>616.66666666666674</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -44679,11 +44679,11 @@
         <v>207</v>
       </c>
       <c r="D18" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F18" s="78">
         <v>0</v>
@@ -44741,7 +44741,7 @@
       </c>
       <c r="V18" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -44755,11 +44755,11 @@
         <v>209</v>
       </c>
       <c r="D19" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F19" s="78">
         <v>0</v>
@@ -44817,7 +44817,7 @@
       </c>
       <c r="V19" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -44831,11 +44831,11 @@
         <v>211</v>
       </c>
       <c r="D20" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F20" s="78">
         <v>0</v>
@@ -44893,7 +44893,7 @@
       </c>
       <c r="V20" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -44907,11 +44907,11 @@
         <v>213</v>
       </c>
       <c r="D21" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F21" s="78">
         <v>0</v>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="V21" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -44983,11 +44983,11 @@
         <v>215</v>
       </c>
       <c r="D22" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E22" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F22" s="78">
         <v>0</v>
@@ -45045,7 +45045,7 @@
       </c>
       <c r="V22" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -45059,11 +45059,11 @@
         <v>217</v>
       </c>
       <c r="D23" s="72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E23" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F23" s="78">
         <v>0</v>
@@ -45121,7 +45121,7 @@
       </c>
       <c r="V23" s="80">
         <f t="shared" si="6"/>
-        <v>633.18181818181824</v>
+        <v>583.18181818181824</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -45135,11 +45135,11 @@
         <v>219</v>
       </c>
       <c r="D24" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E24" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F24" s="78">
         <v>0</v>
@@ -45197,7 +45197,7 @@
       </c>
       <c r="V24" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -45211,11 +45211,11 @@
         <v>221</v>
       </c>
       <c r="D25" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E25" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F25" s="78">
         <v>0</v>
@@ -45273,7 +45273,7 @@
       </c>
       <c r="V25" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -45287,11 +45287,11 @@
         <v>223</v>
       </c>
       <c r="D26" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E26" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F26" s="78">
         <v>0</v>
@@ -45349,7 +45349,7 @@
       </c>
       <c r="V26" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -45363,11 +45363,11 @@
         <v>225</v>
       </c>
       <c r="D27" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E27" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F27" s="78">
         <v>0</v>
@@ -45425,7 +45425,7 @@
       </c>
       <c r="V27" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -45439,11 +45439,11 @@
         <v>227</v>
       </c>
       <c r="D28" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E28" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F28" s="78">
         <v>0</v>
@@ -45501,7 +45501,7 @@
       </c>
       <c r="V28" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -45515,11 +45515,11 @@
         <v>229</v>
       </c>
       <c r="D29" s="72">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="E29" s="72">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F29" s="78">
         <v>0</v>
@@ -45577,7 +45577,7 @@
       </c>
       <c r="V29" s="80">
         <f t="shared" si="6"/>
-        <v>673.33333333333337</v>
+        <v>548.33333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -45591,11 +45591,11 @@
         <v>231</v>
       </c>
       <c r="D30" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F30" s="78">
         <v>0</v>
@@ -45653,7 +45653,7 @@
       </c>
       <c r="V30" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -45667,11 +45667,11 @@
         <v>233</v>
       </c>
       <c r="D31" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F31" s="78">
         <v>0</v>
@@ -45729,7 +45729,7 @@
       </c>
       <c r="V31" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -45743,11 +45743,11 @@
         <v>235</v>
       </c>
       <c r="D32" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F32" s="78">
         <v>0</v>
@@ -45805,7 +45805,7 @@
       </c>
       <c r="V32" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -45819,11 +45819,11 @@
         <v>237</v>
       </c>
       <c r="D33" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F33" s="78">
         <v>0</v>
@@ -45881,7 +45881,7 @@
       </c>
       <c r="V33" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -45895,11 +45895,11 @@
         <v>239</v>
       </c>
       <c r="D34" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F34" s="78">
         <v>0</v>
@@ -45957,7 +45957,7 @@
       </c>
       <c r="V34" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -45971,11 +45971,11 @@
         <v>241</v>
       </c>
       <c r="D35" s="72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="72">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F35" s="78">
         <v>0</v>
@@ -46033,7 +46033,7 @@
       </c>
       <c r="V35" s="80">
         <f t="shared" si="6"/>
-        <v>747.17391304347825</v>
+        <v>547.17391304347825</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -46047,11 +46047,11 @@
         <v>243</v>
       </c>
       <c r="D36" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F36" s="78">
         <v>0</v>
@@ -46109,7 +46109,7 @@
       </c>
       <c r="V36" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -46123,11 +46123,11 @@
         <v>245</v>
       </c>
       <c r="D37" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F37" s="78">
         <v>0</v>
@@ -46185,7 +46185,7 @@
       </c>
       <c r="V37" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -46199,11 +46199,11 @@
         <v>247</v>
       </c>
       <c r="D38" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F38" s="78">
         <v>0</v>
@@ -46261,7 +46261,7 @@
       </c>
       <c r="V38" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -46275,11 +46275,11 @@
         <v>249</v>
       </c>
       <c r="D39" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F39" s="78">
         <v>0</v>
@@ -46337,7 +46337,7 @@
       </c>
       <c r="V39" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -46351,11 +46351,11 @@
         <v>251</v>
       </c>
       <c r="D40" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F40" s="78">
         <v>0</v>
@@ -46413,7 +46413,7 @@
       </c>
       <c r="V40" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -46427,11 +46427,11 @@
         <v>253</v>
       </c>
       <c r="D41" s="72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="72">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F41" s="78">
         <v>0</v>
@@ -46489,7 +46489,7 @@
       </c>
       <c r="V41" s="80">
         <f t="shared" si="6"/>
-        <v>816.66666666666663</v>
+        <v>616.66666666666663</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -46503,11 +46503,11 @@
         <v>255</v>
       </c>
       <c r="D42" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E42" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F42" s="78">
         <v>0</v>
@@ -46565,7 +46565,7 @@
       </c>
       <c r="V42" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -46579,11 +46579,11 @@
         <v>257</v>
       </c>
       <c r="D43" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E43" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F43" s="78">
         <v>0</v>
@@ -46641,7 +46641,7 @@
       </c>
       <c r="V43" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -46655,11 +46655,11 @@
         <v>259</v>
       </c>
       <c r="D44" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E44" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F44" s="78">
         <v>0</v>
@@ -46717,7 +46717,7 @@
       </c>
       <c r="V44" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -46731,11 +46731,11 @@
         <v>261</v>
       </c>
       <c r="D45" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E45" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F45" s="78">
         <v>0</v>
@@ -46793,7 +46793,7 @@
       </c>
       <c r="V45" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -46807,11 +46807,11 @@
         <v>263</v>
       </c>
       <c r="D46" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E46" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F46" s="78">
         <v>0</v>
@@ -46869,7 +46869,7 @@
       </c>
       <c r="V46" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -46883,11 +46883,11 @@
         <v>265</v>
       </c>
       <c r="D47" s="72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E47" s="72">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F47" s="78">
         <v>0</v>
@@ -46945,7 +46945,7 @@
       </c>
       <c r="V47" s="80">
         <f t="shared" si="6"/>
-        <v>814.375</v>
+        <v>789.375</v>
       </c>
     </row>
     <row r="48" spans="1:22">
